--- a/data/UCL/program_url_pair.xlsx
+++ b/data/UCL/program_url_pair.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,5134 +688,6298 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>anaesthesia and perioperative science msc</t>
+          <t>aesthetics (aesthetic surgery) ms</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anaesthesia-and-perioperative-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aesthetics-aesthetic-surgery-ms</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ancient history ma</t>
+          <t>aesthetics (minimally-invasive aesthetics) ms</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ancient-history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aesthetics-minimally-invasive-aesthetics-ms</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>anthropology and professional practice msc</t>
+          <t>anaesthesia and perioperative science msc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-and-professional-practice-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anaesthesia-and-perioperative-science-msc</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>anthropology mres</t>
+          <t>ancient history ma</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ancient-history-ma</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>anthropology, environment and development msc</t>
+          <t>anthropology and professional practice msc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-environment-and-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-and-professional-practice-msc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>applied analytical chemistry msc</t>
+          <t>anthropology mres</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-analytical-chemistry-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-mres</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>applied educational leadership ma</t>
+          <t>anthropology, environment and development msc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-educational-leadership-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-environment-and-development-msc</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>applied infectious disease epidemiology msc</t>
+          <t>applied analytical chemistry msc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-infectious-disease-epidemiology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-analytical-chemistry-msc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>applied linguistics ma</t>
+          <t>applied educational leadership ma</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-linguistics-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-educational-leadership-ma</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>applied paediatric neuropsychology msc</t>
+          <t>applied infectious disease epidemiology msc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-paediatric-neuropsychology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-infectious-disease-epidemiology-msc</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>archaeological science: technology and materials msc</t>
+          <t>applied linguistics ma</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeological-science-technology-and-materials-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-linguistics-ma</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>archaeology and heritage of asia ma</t>
+          <t>applied paediatric neuropsychology msc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-and-heritage-asia-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-paediatric-neuropsychology-msc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>archaeology grad dip</t>
+          <t>aquatic conservation, ecology and restoration msc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-grad-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aquatic-conservation-ecology-and-restoration-msc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>archaeology ma</t>
+          <t>archaeological science: technology and materials msc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeological-science-technology-and-materials-msc</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>architectural computation mres</t>
+          <t>archaeology and heritage of asia ma</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-and-heritage-asia-ma</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>architectural computation msc</t>
+          <t>archaeology grad dip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-grad-dip</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>architectural design march</t>
+          <t>archaeology ma</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-design</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-ma</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>architectural history ma</t>
+          <t>architectural computation mres</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-mres</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>architecture and digital theory mres</t>
+          <t>architectural computation msc</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-digital-theory-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-msc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>architecture and historic urban environments ma</t>
+          <t>architectural design march</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-historic-urban-environments-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-design</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>architecture march</t>
+          <t>architectural history ma</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-history-ma</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>archives and records management ma</t>
+          <t>architecture and digital theory mres</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archives-and-records-management-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-digital-theory-mres</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>art education, culture and practice ma</t>
+          <t>architecture and historic urban environments ma</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/art-education-culture-and-practice-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-historic-urban-environments-ma</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>artefact studies ma</t>
+          <t>architecture march</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artefact-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>artificial intelligence and medical imaging msc</t>
+          <t>archives and records management ma</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-and-medical-imaging-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archives-and-records-management-ma</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>artificial intelligence for biomedicine and healthcare msc</t>
+          <t>art education, culture and practice ma</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-biomedicine-and-healthcare-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/art-education-culture-and-practice-ma</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>artificial intelligence for sustainable development msc</t>
+          <t>artefact studies ma</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-sustainable-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artefact-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>astrophysics msc</t>
+          <t>artificial intelligence and medical imaging msc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/astrophysics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-and-medical-imaging-msc</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>audiological science msc</t>
+          <t>artificial intelligence for biomedicine and healthcare msc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-biomedicine-and-healthcare-msc</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>audiological science with clinical practice msc</t>
+          <t>artificial intelligence for sustainable development msc</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-clinical-practice-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-sustainable-development-msc</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bio-integrated design march</t>
+          <t>astrophysics msc</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/astrophysics-msc</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bio-integrated design msc</t>
+          <t>audio storytelling for radio and podcast ma</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audio-storytelling-radio-and-podcast-ma</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bioarchaeological and forensic anthropology msc</t>
+          <t>audiological science msc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioarchaeological-and-forensic-anthropology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-msc</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>biochemical engineering msc</t>
+          <t>audiological science with clinical practice msc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-clinical-practice-msc</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>biomaterials and tissue engineering msc</t>
+          <t>banking and digital finance msc</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomaterials-and-tissue-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/banking-and-digital-finance-msc</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>biomedical sciences msc</t>
+          <t>behaviour change msc</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomedical-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/behaviour-change-msc</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bioscience entrepreneurship msc</t>
+          <t>bio-integrated design march</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioscience-entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>biosciences mres</t>
+          <t>bio-integrated design msc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosciences-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design-msc</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>biosocial medical anthropology msc</t>
+          <t>bioarchaeological and forensic anthropology msc</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosocial-medical-anthropology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioarchaeological-and-forensic-anthropology-msc</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>biotech and pharmaceutical management msc</t>
+          <t>biochemical engineering msc</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biotech-and-pharmaceutical-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>brain and mind sciences msc</t>
+          <t>biodiversity and global change msc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-and-mind-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biodiversity-and-global-change-msc</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>brain sciences mres</t>
+          <t>biodiversity, evolution &amp; conservation mres</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-sciences-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biodiversity-evolution-conservation-mres</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>building and urban design in development msc</t>
+          <t>biomaterials and tissue engineering msc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/building-and-urban-design-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomaterials-and-tissue-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>built environment : sustainable heritage (data science) msc</t>
+          <t>biomedical sciences msc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomedical-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>built environment: environmental design and engineering msc</t>
+          <t>bioscience entrepreneurship msc</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-environmental-design-and-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioscience-entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>built environment: sustainable heritage (heritage management) msc</t>
+          <t>biosciences mres</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosciences-mres</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>built environment: sustainable heritage (heritage science) msc</t>
+          <t>biosocial medical anthropology msc</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosocial-medical-anthropology-msc</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>business administration mba</t>
+          <t>biotech and pharmaceutical management msc</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-administration-mba</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biotech-and-pharmaceutical-management-msc</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>business analytics msc</t>
+          <t>brain and mind sciences msc</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-analytics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-and-mind-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>business and sustainability msc</t>
+          <t>brain sciences mres</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-and-sustainability-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-sciences-mres</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cardiovascular science msc</t>
+          <t>building and urban design in development msc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cardiovascular-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/building-and-urban-design-development-msc</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>caribbean and latin american studies ma</t>
+          <t>built environment : sustainable heritage (data science) msc</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/caribbean-and-latin-american-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cell and gene therapy msc</t>
+          <t>built environment: environmental design and engineering msc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cell-and-gene-therapy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-environmental-design-and-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>central and south-east european studies ma</t>
+          <t>built environment: sustainable heritage (heritage management) msc</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/central-and-south-east-european-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-management-msc</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>chemical process engineering msc</t>
+          <t>built environment: sustainable heritage (heritage science) msc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-science-msc</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>chemical research msc</t>
+          <t>burns, plastic and reconstructive surgery msc</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-research-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/burns-plastic-and-reconstructive-surgery-msc</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>chemical sustainability msc</t>
+          <t>business administration mba</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-sustainability-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-administration-mba</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>child and adolescent mental health msc</t>
+          <t>business analytics msc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-mental-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-analytics-msc</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>child and adolescent psychology and neuroscience in practice pg dip</t>
+          <t>business and sustainability msc</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-psychology-and-neuroscience-practice-pg-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-and-sustainability-msc</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>child development msc</t>
+          <t>cancer msc</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cancer-msc</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>child health mres</t>
+          <t>cardiovascular science msc</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-health-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cardiovascular-science-msc</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cinematic and videogame architecture march</t>
+          <t>caribbean and latin american studies ma</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cinematic-and-videogame-architecture</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/caribbean-and-latin-american-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>civil engineering (with fluids) msc</t>
+          <t>cell and gene therapy msc</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cell-and-gene-therapy-msc</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>civil engineering (with infrastructure planning) msc</t>
+          <t>central and south-east european studies ma</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-infrastructure-planning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/central-and-south-east-european-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>civil engineering (with integrated design) msc</t>
+          <t>chemical process engineering msc</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-integrated-design-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>civil engineering (with seismic design) msc</t>
+          <t>chemical research msc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-seismic-design-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-research-msc</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>civil engineering (with transport) msc</t>
+          <t>chemical sustainability msc</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-transport-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-sustainability-msc</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>civil engineering grad dip</t>
+          <t>child and adolescent mental health msc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-grad-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-mental-health-msc</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>civil engineering msc</t>
+          <t>child and adolescent psychology and neuroscience in practice pg dip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-psychology-and-neuroscience-practice-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>classics ma</t>
+          <t>child and young person iapt therapy pg dip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/classics-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-young-person-iapt-therapy-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>climate change msc</t>
+          <t>child and young persons psychological wellbeing practice pg dip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-change-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-young-persons-psychological-wellbeing-practice-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>climate, innovation and sustainability policy mpa</t>
+          <t>child development msc</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-innovation-and-sustainability-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-development-msc</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>clinical and public health nutrition msc</t>
+          <t>child health mres</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-and-public-health-nutrition-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-health-mres</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>clinical associate in psychology (adult mental health) apprenticeship programme msc</t>
+          <t>cinematic and videogame architecture march</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-associate-psychology-adult-mental-health-apprenticeship-programme-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cinematic-and-videogame-architecture</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>clinical drug development mres</t>
+          <t>city planning mplan</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/city-planning-mplan</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>clinical drug development msc</t>
+          <t>civil engineering (with fluids) msc</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>clinical mental health sciences msc</t>
+          <t>civil engineering (with infrastructure planning) msc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-mental-health-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-infrastructure-planning-msc</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>clinical neuroscience msc</t>
+          <t>civil engineering (with integrated design) msc</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-integrated-design-msc</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>clinical neuroscience: neuromuscular disease msc</t>
+          <t>civil engineering (with seismic design) msc</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-neuromuscular-disease-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-seismic-design-msc</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>clinical neuroscience: stroke msc</t>
+          <t>civil engineering (with transport) msc</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-stroke-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-transport-msc</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>clinical paediatric neuropsychology msc</t>
+          <t>civil engineering grad dip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-paediatric-neuropsychology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-grad-dip</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>clinical pharmacy, international practice and policy msc</t>
+          <t>civil engineering msc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>clinical pharmacy, international practice and policy with extended placement msc</t>
+          <t>classics ma</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-extended-placement-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/classics-ma</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cognitive and decision sciences msc</t>
+          <t>climate change msc</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-and-decision-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-change-msc</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cognitive neuroscience mres</t>
+          <t>climate, innovation and sustainability policy mpa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-innovation-and-sustainability-policy-mpa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cognitive neuroscience msc</t>
+          <t>clinical and public health nutrition msc</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-and-public-health-nutrition-msc</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>comparative business economics ma</t>
+          <t>clinical associate in psychology (adult mental health) apprenticeship programme msc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-business-economics-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-associate-psychology-adult-mental-health-apprenticeship-programme-msc</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>comparative economics and policy ma</t>
+          <t>clinical drug development mres</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-economics-and-policy-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-mres</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>comparative education ma</t>
+          <t>clinical drug development msc</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-msc</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>comparative literature ma</t>
+          <t>clinical mental health sciences msc</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-literature-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-mental-health-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>computational archaeology: gis, data science and complexity msc</t>
+          <t>clinical neurology msc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-archaeology-gis-data-science-and-complexity-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-msc</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>computational finance msc</t>
+          <t>clinical neurology pg cert</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-finance-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>computational statistics and machine learning msc</t>
+          <t>clinical neurology pg dip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-statistics-and-machine-learning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>computer graphics, vision and imaging msc</t>
+          <t>clinical neuroscience msc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-graphics-vision-and-imaging-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-msc</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>computer science msc</t>
+          <t>clinical neuroscience: neuromuscular disease msc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-neuromuscular-disease-msc</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>connected electronic and photonic systems mres</t>
+          <t>clinical neuroscience: stroke msc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/connected-electronic-and-photonic-systems-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-stroke-msc</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>conservation for archaeology and museums msc</t>
+          <t>clinical ophthalmic practice msc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-archaeology-and-museums-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>conservation of contemporary art and media msc</t>
+          <t>clinical ophthalmic practice pg cert</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-contemporary-art-and-media-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>construction economics and management msc</t>
+          <t>clinical paediatric neuropsychology msc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/construction-economics-and-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-paediatric-neuropsychology-msc</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>creative health masc</t>
+          <t>clinical pharmacy, international practice and policy msc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-health-masc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-msc</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>crime and forensic science msc</t>
+          <t>clinical pharmacy, international practice and policy with extended placement msc</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-and-forensic-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-extended-placement-msc</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>crime science msc</t>
+          <t>clinical trials msc</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-trials-msc</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>crime science with cybercrime msc</t>
+          <t>cognitive and decision sciences msc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-cybercrime-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-and-decision-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>crime science with data science msc</t>
+          <t>cognitive neuroscience mres</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-mres</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cultural heritage studies ma</t>
+          <t>cognitive neuroscience msc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cultural-heritage-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-msc</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>data science and machine learning msc</t>
+          <t>comparative business economics ma</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-machine-learning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-business-economics-ma</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>data science and public policy (economics) msc</t>
+          <t>comparative economics and policy ma</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-economics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-economics-and-policy-ma</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>data science and public policy (political science) msc</t>
+          <t>comparative education ma</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-political-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-education-ma</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>data science msc</t>
+          <t>comparative literature ma</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-literature-ma</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>dementia: causes, treatments and research (mental health) msc</t>
+          <t>computational archaeology: gis, data science and complexity msc</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-mental-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-archaeology-gis-data-science-and-complexity-msc</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>dementia: causes, treatments and research (neuroscience) msc</t>
+          <t>computational finance msc</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-neuroscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-finance-msc</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>democracy and comparative politics msc</t>
+          <t>computational statistics and machine learning msc</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/democracy-and-comparative-politics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-statistics-and-machine-learning-msc</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>dental public health msc</t>
+          <t>computer graphics, vision and imaging msc</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dental-public-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-graphics-vision-and-imaging-msc</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>design for manufacture march</t>
+          <t>computer science msc</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-manufacture</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-science-msc</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>design for performance and interaction march</t>
+          <t>connected electronic and photonic systems mres</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-performance-and-interaction</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/connected-electronic-and-photonic-systems-mres</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>designing audio experiences: art, science and production ma</t>
+          <t>connected environments msc</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/designing-audio-experiences-art-science-and-production-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/connected-environments-msc</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>development administration and planning msc</t>
+          <t>conservation for archaeology and museums msc</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-administration-and-planning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-archaeology-and-museums-msc</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>development, technology and innovation policy mpa</t>
+          <t>conservation msc</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-technology-and-innovation-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-msc</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>developmental and educational psychology msc</t>
+          <t>conservation of contemporary art and media msc</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-and-educational-psychology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-contemporary-art-and-media-msc</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>developmental neuroscience and psychopathology mres</t>
+          <t>conservative dentistry msc</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-neuroscience-and-psychopathology-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservative-dentistry-msc</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>developmental psychology and clinical practice msc</t>
+          <t>construction economics and management msc</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-psychology-and-clinical-practice-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/construction-economics-and-management-msc</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>digital anthropology msc</t>
+          <t>countering extremist crime and terrorism msc</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-anthropology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/countering-extremist-crime-and-terrorism-msc</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>digital engineering management msc</t>
+          <t>creative and collaborative enterprise ma</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-engineering-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-and-collaborative-enterprise-ma</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>digital health and entrepreneurship msc</t>
+          <t>creative documentary by practice mfa</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-health-and-entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-documentary-practice-mfa</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>digital humanities ma</t>
+          <t>creative health masc</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-health-masc</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>digital humanities msc</t>
+          <t>crime and forensic science msc</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-and-forensic-science-msc</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>digital innovation built asset management msc</t>
+          <t>crime science msc</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-innovation-built-asset-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-msc</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>digital manufacturing of advanced materials msc</t>
+          <t>crime science with cybercrime msc</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-manufacturing-advanced-materials-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-cybercrime-msc</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>digital media: critical studies ma</t>
+          <t>crime science with data science msc</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-critical-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>digital media: education ma</t>
+          <t>cultural heritage studies ma</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cultural-heritage-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>digital media: production ma</t>
+          <t>data science and machine learning msc</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-production-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-machine-learning-msc</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>digital technologies and policy mpa</t>
+          <t>data science and public policy (economics) msc</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-technologies-and-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-economics-msc</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>disability, design and innovation msc</t>
+          <t>data science and public policy (political science) msc</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/disability-design-and-innovation-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-political-science-msc</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>drug design mres</t>
+          <t>data science msc</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>drug design msc</t>
+          <t>dementia: causes, treatments and research (mental health) msc</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-mental-health-msc</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>drug discovery and development msc</t>
+          <t>dementia: causes, treatments and research (neuroscience) msc</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-neuroscience-msc</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>drug discovery and pharma management msc</t>
+          <t>democracy and comparative politics msc</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-pharma-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/democracy-and-comparative-politics-msc</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>early child development and clinical applications msc</t>
+          <t>dental public health msc</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-child-development-and-clinical-applications-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dental-public-health-msc</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>early modern studies ma</t>
+          <t>design for manufacture march</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-modern-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-manufacture</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>early years education ma</t>
+          <t>design for performance and interaction march</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-years-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-performance-and-interaction</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>earthquake engineering with disaster management msc</t>
+          <t>designing audio experiences: art, science and production ma</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/earthquake-engineering-disaster-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/designing-audio-experiences-art-science-and-production-ma</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>east european studies mres</t>
+          <t>development administration and planning msc</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/east-european-studies-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-administration-and-planning-msc</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ecology and data science msc</t>
+          <t>development, technology and innovation policy mpa</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ecology-and-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-technology-and-innovation-policy-mpa</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>economics and policy of energy and the environment msc</t>
+          <t>developmental and educational psychology msc</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-and-policy-energy-and-environment-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-and-educational-psychology-msc</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>economics msc</t>
+          <t>developmental neuroscience and psychopathology mres</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-neuroscience-and-psychopathology-mres</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>economy, state and society: economics and business ma (international)</t>
+          <t>developmental psychology and clinical practice msc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-economics-and-business-ma-international</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-psychology-and-clinical-practice-msc</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>economy, state and society: history and society ma (international)</t>
+          <t>dietetics msc</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-history-and-society-ma-international</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dietetics-msc</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>education (advanced practice) ma</t>
+          <t>digital anthropology msc</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-advanced-practice-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-anthropology-msc</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>education (assessment) ma</t>
+          <t>digital engineering management msc</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-assessment-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-engineering-management-msc</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>education (citizenship) ma</t>
+          <t>digital health and entrepreneurship msc</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-citizenship-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-health-and-entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>education (geography) ma</t>
+          <t>digital humanities ma</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-geography-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-ma</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>education (history) ma</t>
+          <t>digital humanities msc</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-msc</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>education (literacy) ma</t>
+          <t>digital innovation built asset management msc</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-literacy-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-innovation-built-asset-management-msc</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>education (psychology) ma</t>
+          <t>digital manufacturing of advanced materials msc</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-psychology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-manufacturing-advanced-materials-msc</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>education (science) ma</t>
+          <t>digital media: critical studies ma</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-science-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-critical-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>education and international development ma</t>
+          <t>digital media: education ma</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-education-ma</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>education and international development: conflict, emergencies and peace (cep) ma</t>
+          <t>digital media: production ma</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-conflict-emergencies-and-peace-cep-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-production-ma</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>education and technology ma</t>
+          <t>digital technologies and policy mpa</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-technology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-technologies-and-policy-mpa</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>education ma</t>
+          <t>disability, design and innovation msc</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/disability-design-and-innovation-msc</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>education, gender and international development ma</t>
+          <t>drug design mres</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-gender-and-international-development-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-mres</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>education, health promotion and international development ma</t>
+          <t>drug design msc</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-health-promotion-and-international-development-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-msc</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>educational leadership (in-service) ma</t>
+          <t>drug discovery and development msc</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-service-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-development-msc</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>educational leadership (international) mba</t>
+          <t>drug discovery and pharma management msc</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-international-mba</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-pharma-management-msc</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>educational leadership (pre-service) ma</t>
+          <t>early child development and clinical applications msc</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-pre-service-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-child-development-and-clinical-applications-msc</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>educational mental health practitioner pg dip</t>
+          <t>early modern studies ma</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-mental-health-practitioner-pg-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-modern-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>educational neuroscience msc</t>
+          <t>early years education ma</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-neuroscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-years-education-ma</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>educational planning, economics and international development ma</t>
+          <t>earthquake engineering with disaster management msc</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-planning-economics-and-international-development-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/earthquake-engineering-disaster-management-msc</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>emerging digital technologies msc</t>
+          <t>east european studies mres</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/emerging-digital-technologies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/east-european-studies-mres</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>energy systems and data analytics (esda) msc</t>
+          <t>eating disorders and clinical nutrition msc</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/energy-systems-and-data-analytics-esda-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/eating-disorders-and-clinical-nutrition-msc</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>engineering and education msc</t>
+          <t>ecology and data science msc</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-and-education-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ecology-and-data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>engineering for international development msc</t>
+          <t>economics and policy of energy and the environment msc</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-international-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-and-policy-energy-and-environment-msc</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>engineering with finance msc</t>
+          <t>economics msc</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-finance-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-msc</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>engineering with innovation &amp; entrepreneurship msc</t>
+          <t>economy, state and society: economics and business ma (international)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-innovation-entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-economics-and-business-ma-international</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>english education ma</t>
+          <t>economy, state and society: history and society ma (international)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-history-and-society-ma-international</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>english linguistics ma</t>
+          <t>economy, state and society: politics and security ma (international)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-linguistics-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-politics-and-security-ma-international</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>english: issues in modern culture ma</t>
+          <t>economy, state and society: politics and the international economy ma (international)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-issues-modern-culture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-politics-and-international-economy-ma-international</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>entrepreneurship msc</t>
+          <t>education (advanced practice) ma</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-advanced-practice-ma</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>environment and sustainable development msc</t>
+          <t>education (assessment) ma</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environment-and-sustainable-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-assessment-ma</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>environmental archaeology msc</t>
+          <t>education (citizenship) ma</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-archaeology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-citizenship-ma</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>environmental modelling msc</t>
+          <t>education (geography) ma</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-modelling-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-geography-ma</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>environmental systems engineering msc</t>
+          <t>education (history) ma</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-systems-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-history-ma</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>european culture and thought: culture ma</t>
+          <t>education (literacy) ma</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-culture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-literacy-ma</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>european culture and thought: thought ma</t>
+          <t>education (psychology) ma</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-thought-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-psychology-ma</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>european politics and policy msc</t>
+          <t>education (science) ma</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-politics-and-policy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-science-ma</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>european studies: european society ma</t>
+          <t>education and international development ma</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-european-society-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-ma</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>european studies: modern european studies ma</t>
+          <t>education and international development: conflict, emergencies and peace (cep) ma</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-modern-european-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-conflict-emergencies-and-peace-cep-ma</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>executive programme health mba</t>
+          <t>education and technology ma</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/executive-programme-health-mba</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-technology-ma</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>experimental pharmacology and therapeutics msc</t>
+          <t>education ma</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-pharmacology-and-therapeutics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-ma</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>film studies ma</t>
+          <t>education, gender and international development ma</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/film-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-gender-and-international-development-ma</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>financial mathematics msc</t>
+          <t>education, health promotion and international development ma</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-mathematics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-health-promotion-and-international-development-ma</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>financial risk management msc</t>
+          <t>educational leadership (in-service) ma</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-risk-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-service-ma</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>financial technology msc</t>
+          <t>educational leadership (international) mba</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-technology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-international-mba</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>fire safe design march</t>
+          <t>educational leadership (pre-service) ma</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fire-safe-design</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-pre-service-ma</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>future manufacturing and nanoscale engineering msc</t>
+          <t>educational mental health practitioner pg dip</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/future-manufacturing-and-nanoscale-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-mental-health-practitioner-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>genetics and multiomics in medicine msc</t>
+          <t>educational neuroscience msc</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-and-multiomics-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-neuroscience-msc</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>genetics of human disease msc</t>
+          <t>educational planning, economics and international development ma</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-human-disease-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-planning-economics-and-international-development-ma</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>geoscience msc</t>
+          <t>emerging digital technologies msc</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geoscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/emerging-digital-technologies-msc</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>geospatial sciences (building information modelling and surveying) msc</t>
+          <t>energy systems and data analytics (esda) msc</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-building-information-modelling-and-surveying-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/energy-systems-and-data-analytics-esda-msc</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>geospatial sciences (geographic information science and computing) msc</t>
+          <t>engineering and education msc</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-geographic-information-science-and-computing-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-and-education-msc</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>geospatial sciences (hydrographic surveying) msc</t>
+          <t>engineering for international development msc</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-hydrographic-surveying-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-international-development-msc</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>geospatial sciences msc</t>
+          <t>engineering with finance msc</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-finance-msc</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>global health and development msc</t>
+          <t>engineering with innovation &amp; entrepreneurship msc</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-health-and-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-innovation-entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>global healthcare management (analytics) msc</t>
+          <t>english education ma</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-analytics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-education-ma</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>global healthcare management (finance) msc</t>
+          <t>english linguistics ma</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-finance-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-linguistics-ma</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>global healthcare management (leadership) msc</t>
+          <t>english: issues in modern culture ma</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-leadership-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-issues-modern-culture-ma</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>global management of natural resources msc</t>
+          <t>entrepreneurship msc</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>global urbanism masc</t>
+          <t>environment and sustainable development msc</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-urbanism-masc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environment-and-sustainable-development-msc</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>health data science msc</t>
+          <t>environment, politics and society msc</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environment-politics-and-society-msc</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>health economics and decision science msc</t>
+          <t>environmental archaeology msc</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-economics-and-decision-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-archaeology-msc</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>health humanities ma</t>
+          <t>environmental modelling msc</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-humanities-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-modelling-msc</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>health in urban development msc</t>
+          <t>environmental systems engineering msc</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-urban-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-systems-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>health informatics msc</t>
+          <t>ethnographic and documentary film (practical) ma</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-informatics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ethnographic-and-documentary-film-practical-ma</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>health mba</t>
+          <t>european culture and thought: culture ma</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-mba</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-culture-ma</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>health professions education msc</t>
+          <t>european culture and thought: thought ma</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-professions-education-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-thought-ma</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>health psychology msc</t>
+          <t>european politics and policy msc</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-psychology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-politics-and-policy-msc</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>health, technology and public policy mpa</t>
+          <t>european studies: european society ma</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-technology-and-public-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-european-society-ma</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>health, wellbeing and sustainable buildings msc</t>
+          <t>european studies: modern european studies ma</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-wellbeing-and-sustainable-buildings-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-modern-european-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>healthcare facilities msc</t>
+          <t>executive programme health mba</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/healthcare-facilities-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/executive-programme-health-mba</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>history (ssees) ma</t>
+          <t>experimental and translational immunology mres</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ssees-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-and-translational-immunology-mres</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>history and philosophy of science msc</t>
+          <t>experimental and translational immunology msc</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-and-philosophy-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-and-translational-immunology-msc</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>history ma</t>
+          <t>experimental pharmacology and therapeutics msc</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-pharmacology-and-therapeutics-msc</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>history of art ma</t>
+          <t>film studies ma</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-art-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/film-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>housing and city planning msc</t>
+          <t>finance msc</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/housing-and-city-planning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/finance-msc</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>human evolution and behaviour msc</t>
+          <t>financial mathematics msc</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-evolution-and-behaviour-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-mathematics-msc</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>human rights ma</t>
+          <t>financial risk management msc</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-rights-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-risk-management-msc</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>human tissue repair mres</t>
+          <t>financial technology msc</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-technology-msc</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>human tissue repair msc</t>
+          <t>fine art ma</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fine-art-ma</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>human-computer interaction msc</t>
+          <t>fine art mfa</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-computer-interaction-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fine-art-mfa</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>implant dentistry msc</t>
+          <t>fire safe design march</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fire-safe-design</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>implant dentistry pg cert</t>
+          <t>future manufacturing and nanoscale engineering msc</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-pg-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/future-manufacturing-and-nanoscale-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>infancy and early childhood development msc</t>
+          <t>gender, society and representation ma</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infancy-and-early-childhood-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/gender-society-and-representation-ma</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>information security msc</t>
+          <t>genetics and multiomics in medicine msc</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/information-security-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-and-multiomics-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>infrastructure planning, appraisal and development msc</t>
+          <t>genetics of human disease msc</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-planning-appraisal-and-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-human-disease-msc</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>infrastructure systems msc</t>
+          <t>geophysical hazards msc</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-systems-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geophysical-hazards-msc</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>innovation, public policy and public value mpa</t>
+          <t>geoscience msc</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/innovation-public-policy-and-public-value-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geoscience-msc</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>integrated machine learning systems msc</t>
+          <t>geospatial sciences (building information modelling and surveying) msc</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/integrated-machine-learning-systems-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-building-information-modelling-and-surveying-msc</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>inter-disciplinary urban design mres</t>
+          <t>geospatial sciences (geographic information science and computing) msc</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/inter-disciplinary-urban-design-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-geographic-information-science-and-computing-msc</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>international development in the americas msc</t>
+          <t>geospatial sciences (hydrographic surveying) msc</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-development-americas-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-hydrographic-surveying-msc</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>international public policy msc</t>
+          <t>geospatial sciences msc</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-public-policy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>internet engineering msc</t>
+          <t>global governance and ethics msc</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/internet-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-governance-and-ethics-msc</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>jewish studies ma</t>
+          <t>global health and development msc</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/jewish-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-health-and-development-msc</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>knowledge, information and data science msc</t>
+          <t>global healthcare management (analytics) msc</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/knowledge-information-and-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-analytics-msc</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>landscape architecture ma</t>
+          <t>global healthcare management (finance) msc</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-finance-msc</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>landscape architecture mla</t>
+          <t>global healthcare management (leadership) msc</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-mla</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-leadership-msc</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>language sciences (sign language and deaf studies) msc</t>
+          <t>global learning ma</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-sign-language-and-deaf-studies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-learning-ma</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>language sciences: development of language and speech msc</t>
+          <t>global management of natural resources msc</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-development-language-and-speech-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>language sciences: neuroscience of language and speech msc</t>
+          <t>global mba</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-neuroscience-language-and-speech-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-mba</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>language sciences: principles of language and speech msc</t>
+          <t>global migration msc</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-principles-language-and-speech-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-migration-msc</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>language sciences: technology of language and speech msc</t>
+          <t>global prosperity msc</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-technology-language-and-speech-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-prosperity-msc</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>language, culture and history: dutch studies ma</t>
+          <t>global urbanism masc</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-dutch-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-urbanism-masc</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>language, culture and history: french and francophone studies ma</t>
+          <t>health data science msc</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-french-and-francophone-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>language, culture and history: german history ma</t>
+          <t>health economics and decision science msc</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-economics-and-decision-science-msc</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>language, culture and history: german studies ma</t>
+          <t>health humanities ma</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-humanities-ma</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>language, culture and history: hispanic studies ma</t>
+          <t>health in urban development msc</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-hispanic-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-urban-development-msc</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>language, culture and history: italian studies ma</t>
+          <t>health informatics msc</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-italian-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-informatics-msc</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>language, culture and history: scandinavian studies ma</t>
+          <t>health mba</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-scandinavian-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-mba</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>latin american studies ma</t>
+          <t>health professions education msc</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/latin-american-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-professions-education-msc</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>leading transformation and change: children and young people's mental health and wellbeing services pg cert</t>
+          <t>health psychology msc</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/leading-transformation-and-change-children-and-young-peoples-mental-health-and</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-psychology-msc</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>legal and political theory ma</t>
+          <t>health, technology and public policy mpa</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/legal-and-political-theory-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-technology-and-public-policy-mpa</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>library and information studies ma</t>
+          <t>health, wellbeing and sustainable buildings msc</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/library-and-information-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-wellbeing-and-sustainable-buildings-msc</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>low intensity cognitive behavioural interventions for common mental health problems pg cert</t>
+          <t>healthcare facilities msc</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/low-intensity-cognitive-behavioural-interventions-common-mental-health-problems-pg</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/healthcare-facilities-msc</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>machine learning msc</t>
+          <t>history (ssees) ma</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/machine-learning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ssees-ma</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>management msc</t>
+          <t>history and philosophy of science msc</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-and-philosophy-science-msc</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>management of complex projects msc</t>
+          <t>history ma</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-complex-projects-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ma</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
+          <t>history of art ma</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-art-ma</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>manufacturing with innovation and enterprise msc</t>
+          <t>housing and city planning msc</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacturing-innovation-and-enterprise-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/housing-and-city-planning-msc</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>marine engineering msc</t>
+          <t>human evolution and behaviour msc</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/marine-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-evolution-and-behaviour-msc</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>master of public health mph</t>
+          <t>human rights ma</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/master-public-health-mph</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-rights-ma</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>material and visual culture ma</t>
+          <t>human tissue repair mres</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/material-and-visual-culture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-mres</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>materials and molecular modelling msc</t>
+          <t>human tissue repair msc</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-and-molecular-modelling-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-msc</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>materials for energy and environment msc</t>
+          <t>human-computer interaction msc</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-energy-and-environment-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-computer-interaction-msc</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>mathematical modelling msc</t>
+          <t>immersive factual storytelling ma</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematical-modelling-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/immersive-factual-storytelling-ma</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>mathematics education ma</t>
+          <t>implant dentistry msc</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematics-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-msc</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>mechanical engineering msc</t>
+          <t>implant dentistry pg cert</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mechanical-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>medical anthropology msc</t>
+          <t>infancy and early childhood development msc</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-anthropology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infancy-and-early-childhood-development-msc</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>medical education msc</t>
+          <t>infection and immunity msc</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-education-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infection-and-immunity-msc</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>medical physics and biomedical engineering mres</t>
+          <t>information security msc</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-physics-and-biomedical-engineering-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/information-security-msc</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>medical robotics and artificial intelligence msc</t>
+          <t>infrastructure investment and finance msc</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-robotics-and-artificial-intelligence-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-investment-and-finance-msc</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>medieval and renaissance studies ma</t>
+          <t>infrastructure planning, appraisal and development msc</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medieval-and-renaissance-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-planning-appraisal-and-development-msc</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>mediterranean archaeology ma</t>
+          <t>infrastructure systems msc</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mediterranean-archaeology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-systems-msc</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mental health sciences research msc</t>
+          <t>innovation, public policy and public value mpa</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mental-health-sciences-research-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/innovation-public-policy-and-public-value-mpa</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>musculoskeletal science msc</t>
+          <t>integrated machine learning systems msc</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/musculoskeletal-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/integrated-machine-learning-systems-msc</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>museum studies ma</t>
+          <t>inter-disciplinary urban design mres</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museum-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/inter-disciplinary-urban-design-mres</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>museums and galleries in education ma</t>
+          <t>intercultural communication ma</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museums-and-galleries-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/intercultural-communication-ma</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>music education ma</t>
+          <t>international city planning msc</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/music-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-city-planning-msc</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>nanotechnology and regenerative medicine msc</t>
+          <t>international development in the americas msc</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-and-regenerative-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-development-americas-msc</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>nanotechnology msc</t>
+          <t>international public policy msc</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-public-policy-msc</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>national award for special educational needs coordination pg cert</t>
+          <t>international real estate and planning msc</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/national-award-special-educational-needs-coordination-pg-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-real-estate-and-planning-msc</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>naval architecture msc</t>
+          <t>international relations of the americas msc</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/naval-architecture-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-relations-americas-msc</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>neuroscience msc</t>
+          <t>internet engineering msc</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neuroscience-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/internet-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>optometry and ophthalmology (advanced clinical practice) msc</t>
+          <t>jewish studies ma</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-advanced-clinical-practice-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/jewish-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>oral medicine msc</t>
+          <t>knowledge, information and data science msc</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/knowledge-information-and-data-science-msc</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>oral surgery (advanced training) mclindent</t>
+          <t>landscape architecture ma</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-surgery-advanced-training-mclindent</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-ma</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>organic chemistry: drug discovery msc</t>
+          <t>landscape architecture mla</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/organic-chemistry-drug-discovery-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-mla</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>orthodontics (advanced training) mclindent</t>
+          <t>language sciences (sign language and deaf studies) msc</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthodontics-advanced-training-mclindent</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-sign-language-and-deaf-studies-msc</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>paediatrics and child health pg dip</t>
+          <t>language sciences: development of language and speech msc</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-pg-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-development-language-and-speech-msc</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>paediatrics and child health: advanced paediatrics msc</t>
+          <t>language sciences: neuroscience of language and speech msc</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-advanced-paediatrics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-neuroscience-language-and-speech-msc</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>paediatrics and child health: community child health msc</t>
+          <t>language sciences: principles of language and speech msc</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-community-child-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-principles-language-and-speech-msc</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>paediatrics and child health: global child health msc</t>
+          <t>language sciences: technology of language and speech msc</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-global-child-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-technology-language-and-speech-msc</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>paediatrics and child health: intensive care msc</t>
+          <t>language, culture and history: dutch studies ma</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-intensive-care-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-dutch-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>paediatrics and child health: molecular and genomic paediatrics msc</t>
+          <t>language, culture and history: french and francophone studies ma</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-molecular-and-genomic-paediatrics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-french-and-francophone-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>pain management msc</t>
+          <t>language, culture and history: german history ma</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pain-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-history-ma</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>palaeoanthropology and palaeolithic archaeology msc</t>
+          <t>language, culture and history: german studies ma</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/palaeoanthropology-and-palaeolithic-archaeology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>performing arts medicine (by dl) pg cert</t>
+          <t>language, culture and history: hispanic studies ma</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-dl-pg-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-hispanic-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>performing arts medicine msc</t>
+          <t>language, culture and history: italian studies ma</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-italian-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>perioperative medicine msc</t>
+          <t>language, culture and history: scandinavian studies ma</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/perioperative-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-scandinavian-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>personalised medicine and novel therapies msc</t>
+          <t>latin american studies ma</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/personalised-medicine-and-novel-therapies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/latin-american-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>pharmaceutical formulation and entrepreneurship msc</t>
+          <t>law llm</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-formulation-and-entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/law-llm</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>pharmaceutical quality &amp; regulation pg dip</t>
+          <t>leading transformation and change: children and young people's mental health and wellbeing services pg cert</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-quality-regulation-pg-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/leading-transformation-and-change-children-and-young-peoples-mental-health-and</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>pharmaceutical research mres</t>
+          <t>learning environments msc</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-research-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/learning-environments-msc</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>philosophy ma</t>
+          <t>legal and political theory ma</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/legal-and-political-theory-ma</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>philosophy of education ma</t>
+          <t>library and information studies ma</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/library-and-information-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>philosophy, politics and economics of health ma</t>
+          <t>light and lighting msc</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-politics-and-economics-health-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/light-and-lighting-msc</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>physical therapy in musculoskeletal healthcare and rehabilitation msc</t>
+          <t>linguistics ma</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physical-therapy-musculoskeletal-healthcare-and-rehabilitation-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-ma</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>physics and engineering in medicine by distance learning msc</t>
+          <t>linguistics with a specialisation in phonology ma</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-distance-learning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-specialisation-phonology-ma</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>physics and engineering in medicine msc</t>
+          <t>linguistics with a specialisation in syntax ma</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-specialisation-syntax-ma</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>physics msc</t>
+          <t>low intensity cognitive behavioural interventions for common mental health problems pg cert</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/low-intensity-cognitive-behavioural-interventions-common-mental-health-problems-pg</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>physiotherapy studies: cardiorespiratory msc</t>
+          <t>machine learning msc</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-cardiorespiratory-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/machine-learning-msc</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>physiotherapy studies: musculoskeletal msc</t>
+          <t>major infrastructure delivery mba</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-musculoskeletal-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/major-infrastructure-delivery-mba</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>physiotherapy studies: neurophysiotherapy msc</t>
+          <t>management msc</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-neurophysiotherapy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-msc</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>physiotherapy studies: paediatrics msc</t>
+          <t>management of complex projects msc</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-paediatrics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-complex-projects-msc</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>planetary science msc</t>
+          <t>managing archaeological sites ma</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/planetary-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/managing-archaeological-sites-ma</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>policy studies in education ma</t>
+          <t>manufacture and commercialisation of stem cell and gene therapies msc</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/policy-studies-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>political analysis (russia and eastern europe) ma</t>
+          <t>manufacturing with innovation and enterprise msc</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-analysis-russia-and-eastern-europe-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacturing-innovation-and-enterprise-msc</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>political sociology (russia and eastern europe) ma</t>
+          <t>marine engineering msc</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-sociology-russia-and-eastern-europe-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/marine-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>population health msc</t>
+          <t>master of public health mph</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/population-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/master-public-health-mph</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>power systems engineering msc</t>
+          <t>material and visual culture ma</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/power-systems-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/material-and-visual-culture-ma</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>precision medicine msc</t>
+          <t>materials and molecular modelling msc</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/precision-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-and-molecular-modelling-msc</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>primary education (4-12) ma</t>
+          <t>materials for energy and environment msc</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/primary-education-4-12-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-energy-and-environment-msc</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>project and enterprise management msc</t>
+          <t>mathematical modelling msc</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/project-and-enterprise-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematical-modelling-msc</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>prosperity, innovation and entrepreneurship msc</t>
+          <t>mathematics education ma</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-innovation-and-entrepreneurship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematics-education-ma</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>prosperity, people and planet msc</t>
+          <t>mechanical engineering msc</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-people-and-planet-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mechanical-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>prosthodontics (advanced training) mclindent</t>
+          <t>medical anthropology msc</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosthodontics-advanced-training-mclindent</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-anthropology-msc</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>psychological sciences msc</t>
+          <t>medical education msc</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychological-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-education-msc</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>psychology and education grad cert</t>
+          <t>medical physics and biomedical engineering mres</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-and-education-grad-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-physics-and-biomedical-engineering-mres</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>psychology of education msc</t>
+          <t>medical robotics and artificial intelligence msc</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-education-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-robotics-and-artificial-intelligence-msc</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>public administration and management mpa</t>
+          <t>medieval and renaissance studies ma</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-administration-and-management-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medieval-and-renaissance-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>public archaeology ma</t>
+          <t>mediterranean archaeology ma</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-archaeology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mediterranean-archaeology-ma</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>public history ma</t>
+          <t>mental health sciences research msc</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-history-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mental-health-sciences-research-msc</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>public policy msc</t>
+          <t>musculoskeletal science msc</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-policy-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/musculoskeletal-science-msc</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>quantum technologies msc</t>
+          <t>museum studies ma</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/quantum-technologies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museum-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>race, ethnicity and postcolonial studies ma</t>
+          <t>museums and galleries in education ma</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/race-ethnicity-and-postcolonial-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museums-and-galleries-education-ma</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>real estate economics and investment analysis msc</t>
+          <t>music education ma</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/real-estate-economics-and-investment-analysis-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/music-education-ma</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>reception of the classical world ma</t>
+          <t>nanotechnology and regenerative medicine msc</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reception-classical-world-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-and-regenerative-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>rehabilitation engineering and assistive technologies msc</t>
+          <t>nanotechnology msc</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/rehabilitation-engineering-and-assistive-technologies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-msc</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>remote sensing and environmental mapping msc</t>
+          <t>national award for special educational needs coordination pg cert</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/remote-sensing-and-environmental-mapping-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/national-award-special-educational-needs-coordination-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>reproductive genetics and fetal medicine msc</t>
+          <t>natural hazards for insurers pg cert</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-genetics-and-fetal-medicine-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/natural-hazards-insurers-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>reproductive science and women's health mres</t>
+          <t>nature-inspired solutions msc</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nature-inspired-solutions-msc</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>reproductive science and women's health msc</t>
+          <t>naval architecture msc</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/naval-architecture-msc</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>research methods for archaeology ma</t>
+          <t>neuromuscular disease mres</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/research-methods-archaeology-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neuromuscular-disease-mres</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>respiratory clinical science msc</t>
+          <t>neuroscience msc</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/respiratory-clinical-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neuroscience-msc</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>risk and disaster science msc</t>
+          <t>neurosurgery mres</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neurosurgery-mres</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>robotics and computation msc</t>
+          <t>obesity and clinical nutrition msc</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/robotics-and-computation-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/obesity-and-clinical-nutrition-msc</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>russian and east european literature and culture ma</t>
+          <t>oncology msc</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-and-east-european-literature-and-culture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-msc</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>russian studies ma</t>
+          <t>oncology pg cert</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>science communication msc</t>
+          <t>oncology pg dip</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-communication-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>science, engineering and public policy mpa</t>
+          <t>optometry and ophthalmology (advanced clinical practice) msc</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-engineering-and-public-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-advanced-clinical-practice-msc</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>science, technology and society msc</t>
+          <t>optometry and ophthalmology (enhanced clinical practice) pg cert</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-technology-and-society-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-enhanced-clinical-practice-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>scientific and data intensive computing msc</t>
+          <t>optometry and ophthalmology msc</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/scientific-and-data-intensive-computing-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-msc</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>security and crime science pg cert</t>
+          <t>optometry and ophthalmology pg cert</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-and-crime-science-pg-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>security studies msc</t>
+          <t>oral and maxillofacial surgery msc</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-studies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-and-maxillofacial-surgery-msc</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>smart buildings and digital engineering msc</t>
+          <t>oral medicine msc</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-buildings-and-digital-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>smart energy and the built environment msc</t>
+          <t>oral surgery (advanced training) mclindent</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-energy-and-built-environment-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-surgery-advanced-training-mclindent</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>social and cultural anthropology msc</t>
+          <t>oral surgery mclindent</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-cultural-anthropology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-surgery-mclindent</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>social and geographic data science msc</t>
+          <t>organic chemistry: drug discovery msc</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-geographic-data-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/organic-chemistry-drug-discovery-msc</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>social cognition: research and applications msc</t>
+          <t>orthodontics (advanced training) mclindent</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-cognition-research-and-applications-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthodontics-advanced-training-mclindent</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>social development practice msc</t>
+          <t>orthodontics mclindent</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-development-practice-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthodontics-mclindent</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>social epidemiology msc</t>
+          <t>orthoptics (pre-registration) msc</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-epidemiology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthoptics-pre-registration-msc</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>social justice and education ma</t>
+          <t>paediatric dentistry msc</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-justice-and-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatric-dentistry-msc</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>social policy and social research (with systematic reviews) msc</t>
+          <t>paediatrics and child health pg dip</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-systematic-reviews-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>social policy and social research msc</t>
+          <t>paediatrics and child health: advanced paediatrics msc</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-advanced-paediatrics-msc</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>social research methods msc</t>
+          <t>paediatrics and child health: community child health msc</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-methods-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-community-child-health-msc</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>social research mres</t>
+          <t>paediatrics and child health: global child health msc</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-global-child-health-msc</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>social science research methods pg dip</t>
+          <t>paediatrics and child health: intensive care msc</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-science-research-methods-pg-dip</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-intensive-care-msc</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>sociology of childhood and children's rights ma</t>
+          <t>paediatrics and child health: molecular and genomic paediatrics msc</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-childhood-and-childrens-rights-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-molecular-and-genomic-paediatrics-msc</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>sociology of education ma</t>
+          <t>pain management msc</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pain-management-msc</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>software systems engineering msc</t>
+          <t>palaeoanthropology and palaeolithic archaeology msc</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/software-systems-engineering-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/palaeoanthropology-and-palaeolithic-archaeology-msc</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>space science and engineering: space science msc</t>
+          <t>performing arts medicine (by dl) pg cert</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-dl-pg-cert</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>space science and engineering: space technology msc</t>
+          <t>performing arts medicine msc</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-technology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>space syntax: architecture and cities mres</t>
+          <t>periodontology (distance learning) msc</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/periodontology-distance-learning-msc</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>space syntax: architecture and cities msc</t>
+          <t>periodontology mclindent</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/periodontology-mclindent</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>spatial planning degree apprenticeship msc</t>
+          <t>perioperative medicine msc</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatial-planning-degree-apprenticeship-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/perioperative-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>spatio-temporal analytics and big data mining msc</t>
+          <t>personalised medicine and novel therapies msc</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatio-temporal-analytics-and-big-data-mining-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/personalised-medicine-and-novel-therapies-msc</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>special and inclusive education (autism) ma</t>
+          <t>pharmaceutical formulation and entrepreneurship msc</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-autism-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-formulation-and-entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>special and inclusive education (specific learning difficulties) ma</t>
+          <t>pharmaceutical quality &amp; regulation pg dip</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-specific-learning-difficulties-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-quality-regulation-pg-dip</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>special and inclusive education ma</t>
+          <t>pharmaceutical research mres</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-research-mres</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>speech and language sciences msc</t>
+          <t>pharmaceutics msc</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/speech-and-language-sciences-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutics-msc</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>sports medicine, exercise and health msc</t>
+          <t>philosophy ma</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sports-medicine-exercise-and-health-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-ma</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>statistics (medical statistics) msc</t>
+          <t>philosophy of education ma</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-medical-statistics-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-education-ma</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>strategic management of projects msc</t>
+          <t>philosophy, politics and economics of health ma</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/strategic-management-projects-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-politics-and-economics-health-ma</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>stroke medicine mres</t>
+          <t>physical therapy in musculoskeletal healthcare and rehabilitation msc</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/stroke-medicine-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physical-therapy-musculoskeletal-healthcare-and-rehabilitation-msc</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>supervision: children and young people's mental health and wellbeing services pg cert</t>
+          <t>physics and engineering in medicine by distance learning msc</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/supervision-children-and-young-peoples-mental-health-and-wellbeing-services-pg-cert</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-distance-learning-msc</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>sustainable resources: economics, policy and transitions msc</t>
+          <t>physics and engineering in medicine msc</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-resources-economics-policy-and-transitions-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>sustainable urbanism msc</t>
+          <t>physics msc</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-urbanism-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-msc</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>synthetic biology mres</t>
+          <t>physiotherapy studies: cardiorespiratory msc</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/synthetic-biology-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-cardiorespiratory-msc</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>systems engineering for the internet of things msc</t>
+          <t>physiotherapy studies: musculoskeletal msc</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-internet-things-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-musculoskeletal-msc</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>systems engineering management msc</t>
+          <t>physiotherapy studies: neurophysiotherapy msc</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-neurophysiotherapy-msc</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>teaching english to speakers of other languages (tesol) in-service ma</t>
+          <t>physiotherapy studies: paediatrics msc</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-service-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-paediatrics-msc</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>teaching english to speakers of other languages (tesol) pre-service ma</t>
+          <t>planetary science msc</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-pre-service-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/planetary-science-msc</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>technology management msc</t>
+          <t>policing msc</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/technology-management-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/policing-msc</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>telecommunications (igdp) msc</t>
+          <t>policy studies in education ma</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-igdp-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/policy-studies-education-ma</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>telecommunications mres</t>
+          <t>political analysis (russia and eastern europe) ma</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-analysis-russia-and-eastern-europe-ma</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>telecommunications msc</t>
+          <t>political sociology (russia and eastern europe) ma</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-sociology-russia-and-eastern-europe-ma</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>telecommunications with business msc</t>
+          <t>politics, violence and crime msc</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-business-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/politics-violence-and-crime-msc</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>the politics and economics of eastern europe mres</t>
+          <t>population health msc</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/politics-and-economics-eastern-europe-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/population-health-msc</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>theoretical psychoanalytic studies (non-clinical) msc</t>
+          <t>power systems engineering msc</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/theoretical-psychoanalytic-studies-non-clinical-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/power-systems-engineering-msc</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>translation and technology (audiovisual) msc</t>
+          <t>precision medicine msc</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-audiovisual-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/precision-medicine-msc</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>translation and technology (scientific, technical and medical) msc</t>
+          <t>primary education (4-12) ma</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-scientific-technical-and-medical-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/primary-education-4-12-ma</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>translation and technology (with interpreting) msc</t>
+          <t>principles of conservation ma</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-interpreting-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/principles-conservation-ma</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>translation: research ma</t>
+          <t>project and enterprise management msc</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-research-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/project-and-enterprise-management-msc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>translation: translation and culture ma</t>
+          <t>prosperity, innovation and entrepreneurship msc</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-and-culture-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-innovation-and-entrepreneurship-msc</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>translation: translation studies ma</t>
+          <t>prosperity, people and planet msc</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-studies-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-people-and-planet-msc</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>translational neuroscience mres</t>
+          <t>prosthodontics (advanced training) mclindent</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translational-neuroscience-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosthodontics-advanced-training-mclindent</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>transport and mobility systems msc</t>
+          <t>psychological sciences msc</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/transport-and-mobility-systems-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychological-sciences-msc</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>united states studies: history and politics ma</t>
+          <t>psychology and education grad cert</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/united-states-studies-history-and-politics-ma</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-and-education-grad-cert</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>urban design and city planning msc</t>
+          <t>psychology of education msc</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design-and-city-planning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-education-msc</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>urban design march</t>
+          <t>public administration and management mpa</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-administration-and-management-mpa</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>urban development planning msc</t>
+          <t>public archaeology ma</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-development-planning-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-archaeology-ma</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>urban economic development msc</t>
+          <t>public history ma</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-economic-development-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-history-ma</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>urban innovation and policy mpa</t>
+          <t>public policy msc</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-innovation-and-policy-mpa</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-policy-msc</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>urban regeneration msc</t>
+          <t>publishing ma</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-regeneration-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/publishing-ma</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>urban spatial science mres</t>
+          <t>quantum technologies msc</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/quantum-technologies-msc</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>urban spatial science msc</t>
+          <t>race, ethnicity and postcolonial studies ma</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/race-ethnicity-and-postcolonial-studies-ma</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>urban studies msc</t>
+          <t>real estate economics and investment analysis msc</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-studies-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/real-estate-economics-and-investment-analysis-msc</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>urban sustainability and resilience mres</t>
+          <t>reception of the classical world ma</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-sustainability-and-resilience-mres</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reception-classical-world-ma</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>venture capital and private equity with financial technology msc</t>
+          <t>rehabilitation engineering and assistive technologies msc</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/venture-capital-and-private-equity-financial-technology-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/rehabilitation-engineering-and-assistive-technologies-msc</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>wireless and optical communications msc</t>
+          <t>remote sensing and environmental mapping msc</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/wireless-and-optical-communications-msc</t>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/remote-sensing-and-environmental-mapping-msc</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
+          <t>reproductive genetics and fetal medicine msc</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-genetics-and-fetal-medicine-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>reproductive science and women's health mres</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>reproductive science and women's health msc</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>research methods for archaeology ma</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/research-methods-archaeology-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>respiratory clinical science msc</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/respiratory-clinical-science-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>responsible finance and alternative assets msc</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/responsible-finance-and-alternative-assets-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>restorative dental practice msc</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/restorative-dental-practice-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>risk and disaster reduction mres</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-reduction-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>risk and disaster reduction pg cert</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-reduction-pg-cert</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>risk and disaster science msc</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-science-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>risk, disaster and resilience msc</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-disaster-and-resilience-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>robotics and computation msc</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/robotics-and-computation-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>russian and east european literature and culture ma</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-and-east-european-literature-and-culture-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>russian and post-soviet politics ma</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-and-post-soviet-politics-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>russian studies ma</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-studies-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>science communication msc</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-communication-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>science, engineering and public policy mpa</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-engineering-and-public-policy-mpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>science, technology and society msc</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-technology-and-society-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>scientific and data intensive computing msc</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/scientific-and-data-intensive-computing-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>security and crime science pg cert</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-and-crime-science-pg-cert</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>security studies msc</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-studies-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>senior wellbeing practitioner pg dip</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/senior-wellbeing-practitioner-pg-dip</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>situated practice ma</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/situated-practice-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>smart buildings and digital engineering msc</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-buildings-and-digital-engineering-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>smart energy and the built environment msc</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-energy-and-built-environment-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>social and cultural anthropology msc</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-cultural-anthropology-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>social and geographic data science msc</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-geographic-data-science-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>social cognition: research and applications msc</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-cognition-research-and-applications-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>social development practice msc</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-development-practice-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>social epidemiology msc</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-epidemiology-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>social justice and education ma</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-justice-and-education-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>social policy and social research (with systematic reviews) msc</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-systematic-reviews-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>social policy and social research msc</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>social research methods msc</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-methods-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>social research mres</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>social science research methods pg dip</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-science-research-methods-pg-dip</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>sociology of childhood and children's rights ma</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-childhood-and-childrens-rights-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>sociology of education ma</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-education-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>software systems engineering msc</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/software-systems-engineering-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>space science and engineering: space science msc</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-science-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>space science and engineering: space technology msc</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-technology-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>space syntax: architecture and cities mres</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>space syntax: architecture and cities msc</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>spatial planning degree apprenticeship msc</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatial-planning-degree-apprenticeship-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>spatial planning msc</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatial-planning-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>spatio-temporal analytics and big data mining msc</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatio-temporal-analytics-and-big-data-mining-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>special and inclusive education (autism) ma</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-autism-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>special and inclusive education (specific learning difficulties) ma</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-specific-learning-difficulties-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>special and inclusive education ma</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>special care dentistry msc</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-care-dentistry-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>special care dentistry pg cert</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-care-dentistry-pg-cert</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>specialist qualification in habilitation and disabilities of sight (children and young people) grad dip</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/specialist-qualification-habilitation-and-disabilities-sight-children-and-young</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>specific learning difficulties (dyslexia) ma</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/specific-learning-difficulties-dyslexia-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>speech and language sciences msc</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/speech-and-language-sciences-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>sports medicine, exercise and health msc</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sports-medicine-exercise-and-health-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>statistics (medical statistics) msc</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-medical-statistics-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>statistics for clinical trials msc</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-clinical-trials-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>statistics msc</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>strategic management of projects msc</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/strategic-management-projects-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>stroke medicine mres</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/stroke-medicine-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>supervision: children and young people's mental health and wellbeing services pg cert</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/supervision-children-and-young-peoples-mental-health-and-wellbeing-services-pg-cert</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>sustainable resources: economics, policy and transitions msc</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-resources-economics-policy-and-transitions-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>sustainable urbanism msc</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-urbanism-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>synthetic biology mres</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/synthetic-biology-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>systems engineering for the internet of things msc</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-internet-things-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>systems engineering management msc</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-management-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>teaching english to speakers of other languages (tesol) in-service ma</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-service-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>teaching english to speakers of other languages (tesol) pre-service ma</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-pre-service-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>technology management msc</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/technology-management-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>telecommunications (igdp) msc</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-igdp-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>telecommunications mres</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>telecommunications msc</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>telecommunications with business msc</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-business-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>the politics and economics of eastern europe mres</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/politics-and-economics-eastern-europe-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>theoretical psychoanalytic studies (non-clinical) msc</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/theoretical-psychoanalytic-studies-non-clinical-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>translation and technology (audiovisual) msc</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-audiovisual-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>translation and technology (scientific, technical and medical) msc</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-scientific-technical-and-medical-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>translation and technology (with interpreting) msc</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-interpreting-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>translation: research ma</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-research-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>translation: translation and culture ma</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-and-culture-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>translation: translation studies ma</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-studies-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>translational neuroscience mres</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translational-neuroscience-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>transport and city planning msc</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/transport-and-city-planning-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>transport and mobility systems msc</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/transport-and-mobility-systems-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>united states studies: history and politics ma</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/united-states-studies-history-and-politics-ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>urban design and city planning msc</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design-and-city-planning-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>urban design march</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>urban development planning msc</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-development-planning-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>urban economic development msc</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-economic-development-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>urban innovation and policy mpa</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-innovation-and-policy-mpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>urban regeneration msc</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-regeneration-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>urban spatial science mres</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>urban spatial science msc</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>urban studies msc</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-studies-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>urban sustainability and resilience mres</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-sustainability-and-resilience-mres</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>venture capital and private equity with financial technology msc</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/venture-capital-and-private-equity-financial-technology-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>wireless and optical communications msc</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/wireless-and-optical-communications-msc</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
           <t>women's health msc</t>
         </is>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B547" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/womens-health-msc</t>
         </is>

--- a/data/UCL/program_url_pair.xlsx
+++ b/data/UCL/program_url_pair.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Program URLs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Program URLs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/UCL/program_url_pair.xlsx
+++ b/data/UCL/program_url_pair.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Program URLs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Program URLs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B547"/>
+  <dimension ref="A1:C547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,11 @@
           <t>URL</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -444,6 +449,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-aesthetic-dentistry-pg-cert</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -456,6 +466,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-architectural-research-pg-cert</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +483,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-msc</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +500,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-audiovestibular-medicine-msc</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +517,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-audiology-otology-and-skull-base-surgery-msc</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +534,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-biomedical-imaging-msc</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +551,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-clinical-practice-ophthalmology-integrated-degree-apprenticeship-msc</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -528,6 +568,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-educational-practice-grad-dip</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +585,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-data-driven-innovation-msc</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -552,6 +602,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-energy-storage-msc</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -564,6 +619,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-materials-innovation-and-enterprise-msc</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -576,6 +636,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-sustainability-msc</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -588,6 +653,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-materials-science-msc</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Faculty of Mathematical and Physical Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -600,6 +670,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-neuroimaging-mres</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -612,6 +687,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-neuroimaging-msc</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -624,6 +704,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-physiotherapy-cardiorespiratory-msc</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -636,6 +721,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-physiotherapy-musculoskeletal-msc</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -648,6 +738,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-physiotherapy-neurophysiotherapy-msc</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -660,6 +755,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-physiotherapy-paediatrics-msc</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -672,6 +772,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-propulsion-electrochemical-power-sources-msc</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -684,6 +789,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/advanced-propulsion-msc</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -696,6 +806,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aesthetics-aesthetic-surgery-ms</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -708,6 +823,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aesthetics-minimally-invasive-aesthetics-ms</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -720,6 +840,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anaesthesia-and-perioperative-science-msc</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -732,6 +857,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ancient-history-ma</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -744,6 +874,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-and-professional-practice-msc</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -756,6 +891,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-mres</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -768,6 +908,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/anthropology-environment-and-development-msc</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -780,6 +925,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-analytical-chemistry-msc</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -792,6 +942,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-educational-leadership-ma</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -804,6 +959,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-infectious-disease-epidemiology-msc</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute for Global Health</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -816,6 +976,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-linguistics-ma</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -828,6 +993,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/applied-paediatric-neuropsychology-msc</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -840,6 +1010,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/aquatic-conservation-ecology-and-restoration-msc</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -852,6 +1027,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeological-science-technology-and-materials-msc</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -864,6 +1044,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-and-heritage-asia-ma</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -876,6 +1061,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-grad-dip</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -888,6 +1078,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archaeology-ma</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -900,6 +1095,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-mres</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -912,6 +1112,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-computation-msc</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -924,6 +1129,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-design</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -936,6 +1146,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architectural-history-ma</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -948,6 +1163,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-digital-theory-mres</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -960,6 +1180,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture-and-historic-urban-environments-ma</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -972,6 +1197,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/architecture</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -984,6 +1214,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/archives-and-records-management-ma</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -996,6 +1231,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/art-education-culture-and-practice-ma</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1008,6 +1248,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artefact-studies-ma</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1020,6 +1265,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-and-medical-imaging-msc</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Medical Physics and Biomedical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1032,6 +1282,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-biomedicine-and-healthcare-msc</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1044,6 +1299,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/artificial-intelligence-sustainable-development-msc</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1056,6 +1316,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/astrophysics-msc</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Physics and Astronomy</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1068,6 +1333,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audio-storytelling-radio-and-podcast-ma</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1080,6 +1350,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-msc</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1092,6 +1367,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/audiological-science-clinical-practice-msc</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Ear Institute</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1104,6 +1384,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/banking-and-digital-finance-msc</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1116,6 +1401,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/behaviour-change-msc</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1128,6 +1418,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1140,6 +1435,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bio-integrated-design-msc</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1152,6 +1452,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioarchaeological-and-forensic-anthropology-msc</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1164,6 +1469,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biochemical-engineering-msc</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Biochemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1176,6 +1486,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biodiversity-and-global-change-msc</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1188,6 +1503,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biodiversity-evolution-conservation-mres</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1200,6 +1520,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomaterials-and-tissue-engineering-msc</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1212,6 +1537,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biomedical-sciences-msc</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1224,6 +1554,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/bioscience-entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1236,6 +1571,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosciences-mres</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1248,6 +1588,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biosocial-medical-anthropology-msc</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1260,6 +1605,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/biotech-and-pharmaceutical-management-msc</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1272,6 +1622,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-and-mind-sciences-msc</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1284,6 +1639,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/brain-sciences-mres</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychiatry</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1296,6 +1656,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/building-and-urban-design-development-msc</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1308,6 +1673,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-data-science-msc</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1320,6 +1690,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-environmental-design-and-engineering-msc</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1332,6 +1707,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-management-msc</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1344,6 +1724,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/built-environment-sustainable-heritage-heritage-science-msc</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1356,6 +1741,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/burns-plastic-and-reconstructive-surgery-msc</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1368,6 +1758,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-administration-mba</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1380,6 +1775,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-analytics-msc</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1392,6 +1792,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/business-and-sustainability-msc</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1404,6 +1809,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cancer-msc</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Cancer Institute</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1416,6 +1826,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cardiovascular-science-msc</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Cardiovascular Science</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1428,6 +1843,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/caribbean-and-latin-american-studies-ma</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of the Americas</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1440,6 +1860,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cell-and-gene-therapy-msc</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1452,6 +1877,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/central-and-south-east-european-studies-ma</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1464,6 +1894,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-process-engineering-msc</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1476,6 +1911,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-research-msc</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1488,6 +1928,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/chemical-sustainability-msc</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1500,6 +1945,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-mental-health-msc</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1512,6 +1962,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-adolescent-psychology-and-neuroscience-practice-pg-dip</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1524,6 +1979,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-young-person-iapt-therapy-pg-dip</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1536,6 +1996,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-and-young-persons-psychological-wellbeing-practice-pg-dip</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1548,6 +2013,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-development-msc</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1560,6 +2030,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/child-health-mres</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1572,6 +2047,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cinematic-and-videogame-architecture</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1584,6 +2064,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/city-planning-mplan</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1596,6 +2081,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-fluids-msc</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1608,6 +2098,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-infrastructure-planning-msc</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1620,6 +2115,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-integrated-design-msc</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1632,6 +2132,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-seismic-design-msc</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1644,6 +2149,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-transport-msc</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1656,6 +2166,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-grad-dip</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1668,6 +2183,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/civil-engineering-msc</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1680,6 +2200,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/classics-ma</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Greek and Latin</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1692,6 +2217,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-change-msc</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1704,6 +2234,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/climate-innovation-and-sustainability-policy-mpa</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1716,6 +2251,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-and-public-health-nutrition-msc</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1728,6 +2268,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-associate-psychology-adult-mental-health-apprenticeship-programme-msc</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1740,6 +2285,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-mres</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1752,6 +2302,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-drug-development-msc</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1764,6 +2319,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-mental-health-sciences-msc</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychiatry</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1776,6 +2336,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-msc</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1788,6 +2353,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-pg-cert</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1800,6 +2370,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neurology-pg-dip</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1812,6 +2387,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-msc</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1824,6 +2404,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-neuromuscular-disease-msc</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1836,6 +2421,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-neuroscience-stroke-msc</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1848,6 +2438,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-msc</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1860,6 +2455,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-ophthalmic-practice-pg-cert</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1872,6 +2472,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-paediatric-neuropsychology-msc</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1884,6 +2489,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-msc</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1896,6 +2506,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-pharmacy-international-practice-and-policy-extended-placement-msc</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1908,6 +2523,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/clinical-trials-msc</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Clinical Trials and Methodology</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1920,6 +2540,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-and-decision-sciences-msc</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1932,6 +2557,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-mres</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1944,6 +2574,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cognitive-neuroscience-msc</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1956,6 +2591,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-business-economics-ma</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1968,6 +2608,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-economics-and-policy-ma</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1980,6 +2625,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-education-ma</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1992,6 +2642,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/comparative-literature-ma</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2004,6 +2659,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-archaeology-gis-data-science-and-complexity-msc</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2016,6 +2676,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-finance-msc</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2028,6 +2693,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computational-statistics-and-machine-learning-msc</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2040,6 +2710,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-graphics-vision-and-imaging-msc</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2052,6 +2727,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/computer-science-msc</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2064,6 +2744,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/connected-electronic-and-photonic-systems-mres</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2076,6 +2761,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/connected-environments-msc</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Centre for Advanced Spatial Analysis</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2088,6 +2778,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-archaeology-and-museums-msc</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2100,6 +2795,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-msc</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2112,6 +2812,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservation-contemporary-art-and-media-msc</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History of Art</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2124,6 +2829,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/conservative-dentistry-msc</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2136,6 +2846,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/construction-economics-and-management-msc</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2148,6 +2863,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/countering-extremist-crime-and-terrorism-msc</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2160,6 +2880,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-and-collaborative-enterprise-ma</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2172,6 +2897,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-documentary-practice-mfa</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2184,6 +2914,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/creative-health-masc</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Arts and Sciences BASc</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2196,6 +2931,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-and-forensic-science-msc</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2208,6 +2948,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-msc</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2220,6 +2965,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-cybercrime-msc</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2232,6 +2982,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/crime-science-data-science-msc</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2244,6 +2999,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/cultural-heritage-studies-ma</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2256,6 +3016,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-machine-learning-msc</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2268,6 +3033,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-economics-msc</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Economics</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2280,6 +3050,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-and-public-policy-political-science-msc</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Economics</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2292,6 +3067,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/data-science-msc</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Statistical Science</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2304,6 +3084,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-mental-health-msc</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychiatry</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2316,6 +3101,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dementia-causes-treatments-and-research-neuroscience-msc</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2328,6 +3118,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/democracy-and-comparative-politics-msc</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2340,6 +3135,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dental-public-health-msc</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Epidemiology and Health Care</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2352,6 +3152,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-manufacture</t>
         </is>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2364,6 +3169,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/design-performance-and-interaction</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2376,6 +3186,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/designing-audio-experiences-art-science-and-production-ma</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2388,6 +3203,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-administration-and-planning-msc</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2400,6 +3220,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/development-technology-and-innovation-policy-mpa</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2412,6 +3237,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-and-educational-psychology-msc</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2424,6 +3254,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-neuroscience-and-psychopathology-mres</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2436,6 +3271,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/developmental-psychology-and-clinical-practice-msc</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2448,6 +3288,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/dietetics-msc</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2460,6 +3305,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-anthropology-msc</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2472,6 +3322,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-engineering-management-msc</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2484,6 +3339,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-health-and-entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2496,6 +3356,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-ma</t>
         </is>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2508,6 +3373,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-humanities-msc</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2520,6 +3390,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-innovation-built-asset-management-msc</t>
         </is>
       </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2532,6 +3407,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-manufacturing-advanced-materials-msc</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2544,6 +3424,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-critical-studies-ma</t>
         </is>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2556,6 +3441,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-education-ma</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2568,6 +3458,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-media-production-ma</t>
         </is>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2580,6 +3475,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/digital-technologies-and-policy-mpa</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2592,6 +3492,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/disability-design-and-innovation-msc</t>
         </is>
       </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2604,6 +3509,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-mres</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2616,6 +3526,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-design-msc</t>
         </is>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2628,6 +3543,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-development-msc</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2640,6 +3560,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/drug-discovery-and-pharma-management-msc</t>
         </is>
       </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2652,6 +3577,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-child-development-and-clinical-applications-msc</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2664,6 +3594,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-modern-studies-ma</t>
         </is>
       </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2676,6 +3611,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/early-years-education-ma</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2688,6 +3628,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/earthquake-engineering-disaster-management-msc</t>
         </is>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2700,6 +3645,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/east-european-studies-mres</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2712,6 +3662,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/eating-disorders-and-clinical-nutrition-msc</t>
         </is>
       </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2724,6 +3679,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ecology-and-data-science-msc</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2736,6 +3696,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-and-policy-energy-and-environment-msc</t>
         </is>
       </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2748,6 +3713,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economics-msc</t>
         </is>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Economics</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2760,6 +3730,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-economics-and-business-ma-international</t>
         </is>
       </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2772,6 +3747,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-history-and-society-ma-international</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2784,6 +3764,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-politics-and-security-ma-international</t>
         </is>
       </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2796,6 +3781,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/economy-state-and-society-politics-and-international-economy-ma-international</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2808,6 +3798,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-advanced-practice-ma</t>
         </is>
       </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2820,6 +3815,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-assessment-ma</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2832,6 +3832,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-citizenship-ma</t>
         </is>
       </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2844,6 +3849,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-geography-ma</t>
         </is>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2856,6 +3866,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-history-ma</t>
         </is>
       </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2868,6 +3883,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-literacy-ma</t>
         </is>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2880,6 +3900,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-psychology-ma</t>
         </is>
       </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2892,6 +3917,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-science-ma</t>
         </is>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2904,6 +3934,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-ma</t>
         </is>
       </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2916,6 +3951,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-international-development-conflict-emergencies-and-peace-cep-ma</t>
         </is>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2928,6 +3968,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-and-technology-ma</t>
         </is>
       </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2940,6 +3985,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-ma</t>
         </is>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2952,6 +4002,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-gender-and-international-development-ma</t>
         </is>
       </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2964,6 +4019,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/education-health-promotion-and-international-development-ma</t>
         </is>
       </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2976,6 +4036,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-service-ma</t>
         </is>
       </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -2988,6 +4053,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-international-mba</t>
         </is>
       </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3000,6 +4070,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-leadership-pre-service-ma</t>
         </is>
       </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3012,6 +4087,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-mental-health-practitioner-pg-dip</t>
         </is>
       </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3024,6 +4104,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-neuroscience-msc</t>
         </is>
       </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3036,6 +4121,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/educational-planning-economics-and-international-development-ma</t>
         </is>
       </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3048,6 +4138,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/emerging-digital-technologies-msc</t>
         </is>
       </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3060,6 +4155,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/energy-systems-and-data-analytics-esda-msc</t>
         </is>
       </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3072,6 +4172,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-and-education-msc</t>
         </is>
       </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3084,6 +4189,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-international-development-msc</t>
         </is>
       </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3096,6 +4206,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-finance-msc</t>
         </is>
       </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3108,6 +4223,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/engineering-innovation-entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3120,6 +4240,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-education-ma</t>
         </is>
       </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3132,6 +4257,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-linguistics-ma</t>
         </is>
       </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | English Language and Literature</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3144,6 +4274,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/english-issues-modern-culture-ma</t>
         </is>
       </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | English Language and Literature</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3156,6 +4291,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3168,6 +4308,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environment-and-sustainable-development-msc</t>
         </is>
       </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3180,6 +4325,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environment-politics-and-society-msc</t>
         </is>
       </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3192,6 +4342,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-archaeology-msc</t>
         </is>
       </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3204,6 +4359,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-modelling-msc</t>
         </is>
       </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3216,6 +4376,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/environmental-systems-engineering-msc</t>
         </is>
       </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3228,6 +4393,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/ethnographic-and-documentary-film-practical-ma</t>
         </is>
       </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3240,6 +4410,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-culture-ma</t>
         </is>
       </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3252,6 +4427,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-culture-and-thought-thought-ma</t>
         </is>
       </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3264,6 +4444,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-politics-and-policy-msc</t>
         </is>
       </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3276,6 +4461,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-european-society-ma</t>
         </is>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3288,6 +4478,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/european-studies-modern-european-studies-ma</t>
         </is>
       </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3300,6 +4495,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/executive-programme-health-mba</t>
         </is>
       </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3312,6 +4512,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-and-translational-immunology-mres</t>
         </is>
       </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Infection and Immunity</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3324,6 +4529,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-and-translational-immunology-msc</t>
         </is>
       </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Infection and Immunity</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3336,6 +4546,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/experimental-pharmacology-and-therapeutics-msc</t>
         </is>
       </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3348,6 +4563,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/film-studies-ma</t>
         </is>
       </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3360,6 +4580,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/finance-msc</t>
         </is>
       </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3372,6 +4597,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-mathematics-msc</t>
         </is>
       </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3384,6 +4614,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-risk-management-msc</t>
         </is>
       </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3396,6 +4631,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/financial-technology-msc</t>
         </is>
       </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3408,6 +4648,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fine-art-ma</t>
         </is>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Slade School of Fine Art</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3420,6 +4665,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fine-art-mfa</t>
         </is>
       </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Slade School of Fine Art</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3432,6 +4682,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/fire-safe-design</t>
         </is>
       </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3444,6 +4699,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/future-manufacturing-and-nanoscale-engineering-msc</t>
         </is>
       </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3456,6 +4716,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/gender-society-and-representation-ma</t>
         </is>
       </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3468,6 +4733,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-and-multiomics-medicine-msc</t>
         </is>
       </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3480,6 +4750,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/genetics-human-disease-msc</t>
         </is>
       </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3492,6 +4767,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geophysical-hazards-msc</t>
         </is>
       </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Earth Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3504,6 +4784,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geoscience-msc</t>
         </is>
       </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Earth Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3516,6 +4801,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-building-information-modelling-and-surveying-msc</t>
         </is>
       </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3528,6 +4818,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-geographic-information-science-and-computing-msc</t>
         </is>
       </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3540,6 +4835,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-hydrographic-surveying-msc</t>
         </is>
       </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3552,6 +4852,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/geospatial-sciences-msc</t>
         </is>
       </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3564,6 +4869,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-governance-and-ethics-msc</t>
         </is>
       </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3576,6 +4886,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-health-and-development-msc</t>
         </is>
       </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute for Global Health</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3588,6 +4903,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-analytics-msc</t>
         </is>
       </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3600,6 +4920,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-finance-msc</t>
         </is>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3612,6 +4937,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-healthcare-management-leadership-msc</t>
         </is>
       </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3624,6 +4954,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-learning-ma</t>
         </is>
       </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3636,6 +4971,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-management-natural-resources-msc</t>
         </is>
       </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3648,6 +4988,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-mba</t>
         </is>
       </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3660,6 +5005,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-migration-msc</t>
         </is>
       </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3672,6 +5022,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-prosperity-msc</t>
         </is>
       </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Institute for Global Prosperity</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3684,6 +5039,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/global-urbanism-masc</t>
         </is>
       </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | UCL Urban Laboratory</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3696,6 +5056,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-data-science-msc</t>
         </is>
       </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Health Informatics</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3708,6 +5073,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-economics-and-decision-science-msc</t>
         </is>
       </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute for Global Health</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3720,6 +5090,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-humanities-ma</t>
         </is>
       </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3732,6 +5107,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-urban-development-msc</t>
         </is>
       </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3744,6 +5124,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-informatics-msc</t>
         </is>
       </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Health Informatics</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3756,6 +5141,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-mba</t>
         </is>
       </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Global Business School for Health</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3768,6 +5158,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-professions-education-msc</t>
         </is>
       </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | UCL Medical School</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3780,6 +5175,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-psychology-msc</t>
         </is>
       </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Epidemiology and Health Care</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3792,6 +5192,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-technology-and-public-policy-mpa</t>
         </is>
       </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3804,6 +5209,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/health-wellbeing-and-sustainable-buildings-msc</t>
         </is>
       </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3816,6 +5226,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/healthcare-facilities-msc</t>
         </is>
       </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3828,6 +5243,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ssees-ma</t>
         </is>
       </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3840,6 +5260,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-and-philosophy-science-msc</t>
         </is>
       </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Science and Technology Studies</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3852,6 +5277,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-ma</t>
         </is>
       </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3864,6 +5294,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/history-art-ma</t>
         </is>
       </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History of Art</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3876,6 +5311,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/housing-and-city-planning-msc</t>
         </is>
       </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3888,6 +5328,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-evolution-and-behaviour-msc</t>
         </is>
       </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3900,6 +5345,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-rights-ma</t>
         </is>
       </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -3912,6 +5362,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-mres</t>
         </is>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3924,6 +5379,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-tissue-repair-msc</t>
         </is>
       </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -3936,6 +5396,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/human-computer-interaction-msc</t>
         </is>
       </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3948,6 +5413,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/immersive-factual-storytelling-ma</t>
         </is>
       </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3960,6 +5430,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-msc</t>
         </is>
       </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -3972,6 +5447,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/implant-dentistry-pg-cert</t>
         </is>
       </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -3984,6 +5464,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infancy-and-early-childhood-development-msc</t>
         </is>
       </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -3996,6 +5481,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infection-and-immunity-msc</t>
         </is>
       </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Infection and Immunity</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4008,6 +5498,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/information-security-msc</t>
         </is>
       </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4020,6 +5515,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-investment-and-finance-msc</t>
         </is>
       </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4032,6 +5532,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-planning-appraisal-and-development-msc</t>
         </is>
       </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4044,6 +5549,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/infrastructure-systems-msc</t>
         </is>
       </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4056,6 +5566,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/innovation-public-policy-and-public-value-mpa</t>
         </is>
       </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Institute for Innovation and Public Purpose</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4068,6 +5583,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/integrated-machine-learning-systems-msc</t>
         </is>
       </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4080,6 +5600,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/inter-disciplinary-urban-design-mres</t>
         </is>
       </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4092,6 +5617,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/intercultural-communication-ma</t>
         </is>
       </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4104,6 +5634,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-city-planning-msc</t>
         </is>
       </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4116,6 +5651,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-development-americas-msc</t>
         </is>
       </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of the Americas</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4128,6 +5668,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-public-policy-msc</t>
         </is>
       </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4140,6 +5685,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-real-estate-and-planning-msc</t>
         </is>
       </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4152,6 +5702,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/international-relations-americas-msc</t>
         </is>
       </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of the Americas</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4164,6 +5719,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/internet-engineering-msc</t>
         </is>
       </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4176,6 +5736,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/jewish-studies-ma</t>
         </is>
       </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Hebrew and Jewish Studies</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4188,6 +5753,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/knowledge-information-and-data-science-msc</t>
         </is>
       </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4200,6 +5770,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-ma</t>
         </is>
       </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4212,6 +5787,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/landscape-architecture-mla</t>
         </is>
       </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4224,6 +5804,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-sign-language-and-deaf-studies-msc</t>
         </is>
       </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4236,6 +5821,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-development-language-and-speech-msc</t>
         </is>
       </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4248,6 +5838,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-neuroscience-language-and-speech-msc</t>
         </is>
       </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4260,6 +5855,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-principles-language-and-speech-msc</t>
         </is>
       </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4272,6 +5872,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-sciences-technology-language-and-speech-msc</t>
         </is>
       </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4284,6 +5889,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-dutch-studies-ma</t>
         </is>
       </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4296,6 +5906,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-french-and-francophone-studies-ma</t>
         </is>
       </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4308,6 +5923,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-history-ma</t>
         </is>
       </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4320,6 +5940,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-german-studies-ma</t>
         </is>
       </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4332,6 +5957,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-hispanic-studies-ma</t>
         </is>
       </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4344,6 +5974,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-italian-studies-ma</t>
         </is>
       </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4356,6 +5991,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/language-culture-and-history-scandinavian-studies-ma</t>
         </is>
       </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | School of European Languages, Culture and Society</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4368,6 +6008,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/latin-american-studies-ma</t>
         </is>
       </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of the Americas</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4380,6 +6025,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/law-llm</t>
         </is>
       </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Faculty of Laws | Laws</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4392,6 +6042,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/leading-transformation-and-change-children-and-young-peoples-mental-health-and</t>
         </is>
       </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4404,6 +6059,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/learning-environments-msc</t>
         </is>
       </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4416,6 +6076,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/legal-and-political-theory-ma</t>
         </is>
       </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4428,6 +6093,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/library-and-information-studies-ma</t>
         </is>
       </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4440,6 +6110,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/light-and-lighting-msc</t>
         </is>
       </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4452,6 +6127,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-ma</t>
         </is>
       </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4464,6 +6144,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-specialisation-phonology-ma</t>
         </is>
       </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4476,6 +6161,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/linguistics-specialisation-syntax-ma</t>
         </is>
       </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4488,6 +6178,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/low-intensity-cognitive-behavioural-interventions-common-mental-health-problems-pg</t>
         </is>
       </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4500,6 +6195,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/machine-learning-msc</t>
         </is>
       </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4512,6 +6212,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/major-infrastructure-delivery-mba</t>
         </is>
       </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4524,6 +6229,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-msc</t>
         </is>
       </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | UCL School of Management</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4536,6 +6246,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/management-complex-projects-msc</t>
         </is>
       </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Space and Climate Physics</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4548,6 +6263,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/managing-archaeological-sites-ma</t>
         </is>
       </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4560,6 +6280,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacture-and-commercialisation-stem-cell-and-gene-therapies-msc</t>
         </is>
       </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Biochemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4572,6 +6297,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/manufacturing-innovation-and-enterprise-msc</t>
         </is>
       </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4584,6 +6314,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/marine-engineering-msc</t>
         </is>
       </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -4596,6 +6331,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/master-public-health-mph</t>
         </is>
       </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Epidemiology and Health Care</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -4608,6 +6348,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/material-and-visual-culture-ma</t>
         </is>
       </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -4620,6 +6365,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-and-molecular-modelling-msc</t>
         </is>
       </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -4632,6 +6382,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/materials-energy-and-environment-msc</t>
         </is>
       </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -4644,6 +6399,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematical-modelling-msc</t>
         </is>
       </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -4656,6 +6416,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mathematics-education-ma</t>
         </is>
       </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>IOE | Curriculum, Pedagogy and Assessment</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -4668,6 +6433,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mechanical-engineering-msc</t>
         </is>
       </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -4680,6 +6450,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-anthropology-msc</t>
         </is>
       </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -4692,6 +6467,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-education-msc</t>
         </is>
       </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | UCL Medical School</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -4704,6 +6484,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-physics-and-biomedical-engineering-mres</t>
         </is>
       </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Medical Physics and Biomedical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -4716,6 +6501,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medical-robotics-and-artificial-intelligence-msc</t>
         </is>
       </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Medical Physics and Biomedical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -4728,6 +6518,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/medieval-and-renaissance-studies-ma</t>
         </is>
       </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -4740,6 +6535,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mediterranean-archaeology-ma</t>
         </is>
       </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -4752,6 +6552,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/mental-health-sciences-research-msc</t>
         </is>
       </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychiatry</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -4764,6 +6569,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/musculoskeletal-science-msc</t>
         </is>
       </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -4776,6 +6586,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museum-studies-ma</t>
         </is>
       </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -4788,6 +6603,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/museums-and-galleries-education-ma</t>
         </is>
       </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -4800,6 +6620,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/music-education-ma</t>
         </is>
       </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -4812,6 +6637,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-and-regenerative-medicine-msc</t>
         </is>
       </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -4824,6 +6654,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nanotechnology-msc</t>
         </is>
       </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -4836,6 +6671,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/national-award-special-educational-needs-coordination-pg-cert</t>
         </is>
       </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -4848,6 +6688,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/natural-hazards-insurers-pg-cert</t>
         </is>
       </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Earth Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -4860,6 +6705,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/nature-inspired-solutions-msc</t>
         </is>
       </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Chemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -4872,6 +6722,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/naval-architecture-msc</t>
         </is>
       </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -4884,6 +6739,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neuromuscular-disease-mres</t>
         </is>
       </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -4896,6 +6756,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neuroscience-msc</t>
         </is>
       </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | Division of Biosciences</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -4908,6 +6773,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/neurosurgery-mres</t>
         </is>
       </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -4920,6 +6790,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/obesity-and-clinical-nutrition-msc</t>
         </is>
       </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -4932,6 +6807,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-msc</t>
         </is>
       </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Cancer Institute</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -4944,6 +6824,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-pg-cert</t>
         </is>
       </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Cancer Institute</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -4956,6 +6841,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oncology-pg-dip</t>
         </is>
       </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Cancer Institute</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -4968,6 +6858,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-advanced-clinical-practice-msc</t>
         </is>
       </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -4980,6 +6875,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-enhanced-clinical-practice-pg-cert</t>
         </is>
       </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -4992,6 +6892,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-msc</t>
         </is>
       </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -5004,6 +6909,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/optometry-and-ophthalmology-pg-cert</t>
         </is>
       </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -5016,6 +6926,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-and-maxillofacial-surgery-msc</t>
         </is>
       </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5028,6 +6943,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-medicine-msc</t>
         </is>
       </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -5040,6 +6960,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-surgery-advanced-training-mclindent</t>
         </is>
       </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5052,6 +6977,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/oral-surgery-mclindent</t>
         </is>
       </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -5064,6 +6994,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/organic-chemistry-drug-discovery-msc</t>
         </is>
       </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Chemistry</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -5076,6 +7011,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthodontics-advanced-training-mclindent</t>
         </is>
       </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -5088,6 +7028,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthodontics-mclindent</t>
         </is>
       </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -5100,6 +7045,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/orthoptics-pre-registration-msc</t>
         </is>
       </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Institute of Ophthalmology</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -5112,6 +7062,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatric-dentistry-msc</t>
         </is>
       </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -5124,6 +7079,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-pg-dip</t>
         </is>
       </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -5136,6 +7096,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-advanced-paediatrics-msc</t>
         </is>
       </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -5148,6 +7113,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-community-child-health-msc</t>
         </is>
       </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -5160,6 +7130,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-global-child-health-msc</t>
         </is>
       </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -5172,6 +7147,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-intensive-care-msc</t>
         </is>
       </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -5184,6 +7164,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/paediatrics-and-child-health-molecular-and-genomic-paediatrics-msc</t>
         </is>
       </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -5196,6 +7181,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pain-management-msc</t>
         </is>
       </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -5208,6 +7198,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/palaeoanthropology-and-palaeolithic-archaeology-msc</t>
         </is>
       </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -5220,6 +7215,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-dl-pg-cert</t>
         </is>
       </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -5232,6 +7232,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/performing-arts-medicine-msc</t>
         </is>
       </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -5244,6 +7249,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/periodontology-distance-learning-msc</t>
         </is>
       </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -5256,6 +7266,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/periodontology-mclindent</t>
         </is>
       </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -5268,6 +7283,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/perioperative-medicine-msc</t>
         </is>
       </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -5280,6 +7300,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/personalised-medicine-and-novel-therapies-msc</t>
         </is>
       </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -5292,6 +7317,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-formulation-and-entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -5304,6 +7334,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-quality-regulation-pg-dip</t>
         </is>
       </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -5316,6 +7351,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutical-research-mres</t>
         </is>
       </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -5328,6 +7368,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/pharmaceutics-msc</t>
         </is>
       </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Faculty of Life Sciences | School of Pharmacy</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -5340,6 +7385,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-ma</t>
         </is>
       </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Philosophy</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -5352,6 +7402,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-education-ma</t>
         </is>
       </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -5364,6 +7419,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/philosophy-politics-and-economics-health-ma</t>
         </is>
       </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -5376,6 +7436,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physical-therapy-musculoskeletal-healthcare-and-rehabilitation-msc</t>
         </is>
       </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -5388,6 +7453,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-distance-learning-msc</t>
         </is>
       </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Medical Physics and Biomedical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -5400,6 +7470,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-and-engineering-medicine-msc</t>
         </is>
       </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Medical Physics and Biomedical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -5412,6 +7487,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physics-msc</t>
         </is>
       </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Physics and Astronomy</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -5424,6 +7504,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-cardiorespiratory-msc</t>
         </is>
       </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -5436,6 +7521,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-musculoskeletal-msc</t>
         </is>
       </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -5448,6 +7538,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-neurophysiotherapy-msc</t>
         </is>
       </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -5460,6 +7555,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/physiotherapy-studies-paediatrics-msc</t>
         </is>
       </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL GOS Institute of Child Health</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -5472,6 +7572,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/planetary-science-msc</t>
         </is>
       </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Physics and Astronomy</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -5484,6 +7589,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/policing-msc</t>
         </is>
       </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -5496,6 +7606,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/policy-studies-education-ma</t>
         </is>
       </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -5508,6 +7623,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-analysis-russia-and-eastern-europe-ma</t>
         </is>
       </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -5520,6 +7640,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/political-sociology-russia-and-eastern-europe-ma</t>
         </is>
       </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -5532,6 +7657,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/politics-violence-and-crime-msc</t>
         </is>
       </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -5544,6 +7674,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/population-health-msc</t>
         </is>
       </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Epidemiology and Health Care</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -5556,6 +7691,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/power-systems-engineering-msc</t>
         </is>
       </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Mechanical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -5568,6 +7708,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/precision-medicine-msc</t>
         </is>
       </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -5580,6 +7725,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/primary-education-4-12-ma</t>
         </is>
       </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>IOE | Learning and Leadership</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -5592,6 +7742,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/principles-conservation-ma</t>
         </is>
       </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -5604,6 +7759,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/project-and-enterprise-management-msc</t>
         </is>
       </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -5616,6 +7776,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-innovation-and-entrepreneurship-msc</t>
         </is>
       </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Institute for Global Prosperity</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -5628,6 +7793,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosperity-people-and-planet-msc</t>
         </is>
       </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Institute for Global Prosperity</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -5640,6 +7810,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/prosthodontics-advanced-training-mclindent</t>
         </is>
       </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -5652,6 +7827,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychological-sciences-msc</t>
         </is>
       </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -5664,6 +7844,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-and-education-grad-cert</t>
         </is>
       </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -5676,6 +7861,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/psychology-education-msc</t>
         </is>
       </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -5688,6 +7878,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-administration-and-management-mpa</t>
         </is>
       </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -5700,6 +7895,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-archaeology-ma</t>
         </is>
       </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -5712,6 +7912,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-history-ma</t>
         </is>
       </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | History</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -5724,6 +7929,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/public-policy-msc</t>
         </is>
       </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -5736,6 +7946,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/publishing-ma</t>
         </is>
       </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Information Studies</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -5748,6 +7963,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/quantum-technologies-msc</t>
         </is>
       </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Physics and Astronomy</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -5760,6 +7980,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/race-ethnicity-and-postcolonial-studies-ma</t>
         </is>
       </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -5772,6 +7997,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/real-estate-economics-and-investment-analysis-msc</t>
         </is>
       </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -5784,6 +8014,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reception-classical-world-ma</t>
         </is>
       </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Greek and Latin</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -5796,6 +8031,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/rehabilitation-engineering-and-assistive-technologies-msc</t>
         </is>
       </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -5808,6 +8048,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/remote-sensing-and-environmental-mapping-msc</t>
         </is>
       </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -5820,6 +8065,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-genetics-and-fetal-medicine-msc</t>
         </is>
       </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL Elizabeth Garrett Anderson Institute for Women's Health</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -5832,6 +8082,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-mres</t>
         </is>
       </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL Elizabeth Garrett Anderson Institute for Women’s Health</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -5844,6 +8099,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/reproductive-science-and-womens-health-msc</t>
         </is>
       </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL Elizabeth Garrett Anderson Institute for Women's Health</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -5856,6 +8116,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/research-methods-archaeology-ma</t>
         </is>
       </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of Archaeology</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -5868,6 +8133,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/respiratory-clinical-science-msc</t>
         </is>
       </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Medicine</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -5880,6 +8150,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/responsible-finance-and-alternative-assets-msc</t>
         </is>
       </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -5892,6 +8167,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/restorative-dental-practice-msc</t>
         </is>
       </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -5904,6 +8184,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-reduction-mres</t>
         </is>
       </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Institute for Risk and Disaster Reduction</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -5916,6 +8201,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-reduction-pg-cert</t>
         </is>
       </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Institute for Risk and Disaster Reduction</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -5928,6 +8218,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-and-disaster-science-msc</t>
         </is>
       </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Institute for Risk and Disaster Reduction</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -5940,6 +8235,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/risk-disaster-and-resilience-msc</t>
         </is>
       </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Institute for Risk and Disaster Reduction</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -5952,6 +8252,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/robotics-and-computation-msc</t>
         </is>
       </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -5964,6 +8269,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-and-east-european-literature-and-culture-ma</t>
         </is>
       </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -5976,6 +8286,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-and-post-soviet-politics-ma</t>
         </is>
       </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -5988,6 +8303,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/russian-studies-ma</t>
         </is>
       </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -6000,6 +8320,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-communication-msc</t>
         </is>
       </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Science and Technology Studies</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -6012,6 +8337,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-engineering-and-public-policy-mpa</t>
         </is>
       </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -6024,6 +8354,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/science-technology-and-society-msc</t>
         </is>
       </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Science and Technology Studies</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -6036,6 +8371,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/scientific-and-data-intensive-computing-msc</t>
         </is>
       </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Physics and Astronomy</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -6048,6 +8388,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-and-crime-science-pg-cert</t>
         </is>
       </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Security and Crime Science</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -6060,6 +8405,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/security-studies-msc</t>
         </is>
       </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Political Science</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -6072,6 +8422,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/senior-wellbeing-practitioner-pg-dip</t>
         </is>
       </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -6084,6 +8439,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/situated-practice-ma</t>
         </is>
       </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -6096,6 +8456,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-buildings-and-digital-engineering-msc</t>
         </is>
       </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -6108,6 +8473,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/smart-energy-and-built-environment-msc</t>
         </is>
       </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -6120,6 +8490,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-cultural-anthropology-msc</t>
         </is>
       </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Anthropology</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -6132,6 +8507,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-and-geographic-data-science-msc</t>
         </is>
       </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -6144,6 +8524,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-cognition-research-and-applications-msc</t>
         </is>
       </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -6156,6 +8541,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-development-practice-msc</t>
         </is>
       </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -6168,6 +8558,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-epidemiology-msc</t>
         </is>
       </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Epidemiology and Health Care</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -6180,6 +8575,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-justice-and-education-ma</t>
         </is>
       </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -6192,6 +8592,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-systematic-reviews-msc</t>
         </is>
       </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>IOE | Social Research Institute</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -6204,6 +8609,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-policy-and-social-research-msc</t>
         </is>
       </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>IOE | Social Research Institute</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -6216,6 +8626,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-methods-msc</t>
         </is>
       </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>IOE | Social Research Institute</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -6228,6 +8643,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-research-mres</t>
         </is>
       </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>IOE | UCL Institute of Education</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -6240,6 +8660,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/social-science-research-methods-pg-dip</t>
         </is>
       </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>IOE | UCL Institute of Education</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -6252,6 +8677,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-childhood-and-childrens-rights-ma</t>
         </is>
       </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>IOE | Social Research Institute</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -6264,6 +8694,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sociology-education-ma</t>
         </is>
       </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>IOE | Education, Practice and Society</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -6276,6 +8711,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/software-systems-engineering-msc</t>
         </is>
       </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -6288,6 +8728,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-science-msc</t>
         </is>
       </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Space and Climate Physics</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -6300,6 +8745,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-science-and-engineering-space-technology-msc</t>
         </is>
       </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Space and Climate Physics</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -6312,6 +8762,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-mres</t>
         </is>
       </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -6324,6 +8779,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/space-syntax-architecture-and-cities-msc</t>
         </is>
       </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -6336,6 +8796,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatial-planning-degree-apprenticeship-msc</t>
         </is>
       </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -6348,6 +8813,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatial-planning-msc</t>
         </is>
       </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -6360,6 +8830,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/spatio-temporal-analytics-and-big-data-mining-msc</t>
         </is>
       </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -6372,6 +8847,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-autism-ma</t>
         </is>
       </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -6384,6 +8864,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-specific-learning-difficulties-ma</t>
         </is>
       </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -6396,6 +8881,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-and-inclusive-education-ma</t>
         </is>
       </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -6408,6 +8898,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-care-dentistry-msc</t>
         </is>
       </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -6420,6 +8915,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/special-care-dentistry-pg-cert</t>
         </is>
       </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Eastman Dental Institute</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -6432,6 +8932,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/specialist-qualification-habilitation-and-disabilities-sight-children-and-young</t>
         </is>
       </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -6444,6 +8949,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/specific-learning-difficulties-dyslexia-ma</t>
         </is>
       </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>IOE | Psychology and Human Development</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -6456,6 +8966,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/speech-and-language-sciences-msc</t>
         </is>
       </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -6468,6 +8983,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sports-medicine-exercise-and-health-msc</t>
         </is>
       </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Faculty of Medical Sciences | Division of Surgery and Interventional Science</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -6480,6 +9000,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-medical-statistics-msc</t>
         </is>
       </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Statistical Science</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -6492,6 +9017,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-clinical-trials-msc</t>
         </is>
       </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | Institute of Clinical Trials and Methodology</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -6504,6 +9034,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/statistics-msc</t>
         </is>
       </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Statistical Science</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -6516,6 +9051,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/strategic-management-projects-msc</t>
         </is>
       </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Sustainable Construction</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -6528,6 +9068,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/stroke-medicine-mres</t>
         </is>
       </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -6540,6 +9085,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/supervision-children-and-young-peoples-mental-health-and-wellbeing-services-pg-cert</t>
         </is>
       </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -6552,6 +9102,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-resources-economics-policy-and-transitions-msc</t>
         </is>
       </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Environment, Energy and Resources</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -6564,6 +9119,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/sustainable-urbanism-msc</t>
         </is>
       </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -6576,6 +9136,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/synthetic-biology-mres</t>
         </is>
       </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Biochemical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -6588,6 +9153,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-internet-things-msc</t>
         </is>
       </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Computer Science</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -6600,6 +9170,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/systems-engineering-management-msc</t>
         </is>
       </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Space and Climate Physics</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -6612,6 +9187,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-service-ma</t>
         </is>
       </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -6624,6 +9204,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/teaching-english-speakers-other-languages-tesol-pre-service-ma</t>
         </is>
       </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>IOE | Culture, Communication and Media</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -6636,6 +9221,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/technology-management-msc</t>
         </is>
       </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Faculty of Mathematical and Physical Sciences | Space and Climate Physics</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -6648,6 +9238,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-igdp-msc</t>
         </is>
       </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -6660,6 +9255,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-mres</t>
         </is>
       </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -6672,6 +9272,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-msc</t>
         </is>
       </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -6684,6 +9289,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/telecommunications-business-msc</t>
         </is>
       </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -6696,6 +9306,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/politics-and-economics-eastern-europe-mres</t>
         </is>
       </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | SSEES - School of Slavonic and East European Studies</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -6708,6 +9323,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/theoretical-psychoanalytic-studies-non-clinical-msc</t>
         </is>
       </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | Division of Psychology and Language Sciences</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -6720,6 +9340,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-audiovisual-msc</t>
         </is>
       </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -6732,6 +9357,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-scientific-technical-and-medical-msc</t>
         </is>
       </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -6744,6 +9374,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-and-technology-interpreting-msc</t>
         </is>
       </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -6756,6 +9391,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-research-ma</t>
         </is>
       </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -6768,6 +9408,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-and-culture-ma</t>
         </is>
       </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -6780,6 +9425,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translation-translation-studies-ma</t>
         </is>
       </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Humanities | Centre for Multidisciplinary and Intercultural Inquiry</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -6792,6 +9442,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/translational-neuroscience-mres</t>
         </is>
       </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Faculty of Brain Sciences | UCL Queen Square Institute of Neurology</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -6804,6 +9459,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/transport-and-city-planning-msc</t>
         </is>
       </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -6816,6 +9476,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/transport-and-mobility-systems-msc</t>
         </is>
       </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -6828,6 +9493,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/united-states-studies-history-and-politics-ma</t>
         </is>
       </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Institute of the Americas</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -6840,6 +9510,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design-and-city-planning-msc</t>
         </is>
       </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -6852,6 +9527,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-design</t>
         </is>
       </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -6864,6 +9544,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-development-planning-msc</t>
         </is>
       </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -6876,6 +9561,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-economic-development-msc</t>
         </is>
       </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Development Planning Unit</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -6888,6 +9578,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-innovation-and-policy-mpa</t>
         </is>
       </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Science, Technology, Engineering and Public Policy</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -6900,6 +9595,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-regeneration-msc</t>
         </is>
       </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Bartlett School of Planning</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -6912,6 +9612,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-mres</t>
         </is>
       </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Centre for Advanced Spatial Analysis</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -6924,6 +9629,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-spatial-science-msc</t>
         </is>
       </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Faculty of the Built Environment | Centre for Advanced Spatial Analysis</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -6936,6 +9646,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-studies-msc</t>
         </is>
       </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Faculty of Social and Historical Sciences | Geography</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -6948,6 +9663,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/urban-sustainability-and-resilience-mres</t>
         </is>
       </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -6960,6 +9680,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/venture-capital-and-private-equity-financial-technology-msc</t>
         </is>
       </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Civil, Environmental and Geomatic Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -6972,6 +9697,11 @@
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/wireless-and-optical-communications-msc</t>
         </is>
       </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering Sciences | Electronic and Electrical Engineering</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -6982,6 +9712,11 @@
       <c r="B547" t="inlineStr">
         <is>
           <t>https://www.ucl.ac.uk/prospective-students/graduate/taught-degrees/womens-health-msc</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Faculty of Population Health Sciences | UCL Elizabeth Garrett Anderson Institute for Women’s Health</t>
         </is>
       </c>
     </row>
